--- a/QALD9-Plus-testing/zero-shot-entity-aligned/wikidata-to-dbpedia/comparison_results_llama_zero_shot_wikidata_dbpedia.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/wikidata-to-dbpedia/comparison_results_llama_zero_shot_wikidata_dbpedia.xlsx
@@ -568,27 +568,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>How much did the Lego Movie cost?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,57 +598,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['223', 'http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,37 +678,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['-1796-09-28', '-210-10-09', '-106-01-03', '-100-07-12', '-081-04-27', '-070-10-15', '-065-12-08', '-043-03-20', '-002-12-11', '0001-02-01', '0002-02-03', '0004-08-04', '0007-05-25', '0008-04-25', '0009-01-09', '0017-05-02', '0018-07-10', '0019-02-02', '0019-03-23', '0019-04-11', '0019-06-20', '0019-06-30', '0019-07-24', '0019-08-01', '0019-08-17', '0019-10-10', '0019-12-21', '0039-11-03', '0162-10-01', '0175-03-01', '0183-07-03', '0184-06-06', '0190-03-23', '0191-02-13', '0195-01-31', '0220-02-21', '0223-05-06', '0223-08-11', '0232-01-30', '0236-07-04', '0245-03-19', '0247-03-23', '0251-01-12', '0254-04-04', '0255-01-06', '0264-03-03', '0270-03-15', '0274-09-17', '0278-12-27', '0283-03-02', '0291-01-10', '0304-10-24', '0339-12-12', '0354-06-22', '0354-11-13', '0420-06-06', '0450-01-17', '0456-04-30', '0472-11-12', '0480-03-02', '0505-04-25', '0512-01-01', '0520-03-27', '0521-12-07', '0522-10-15', '0538-02-16', '0538-07-01', '0570-04-21', '0580-09-21', '0588-06-11', '0601-09-13', '0602-04-06', '0605-12-15', '0607-12-08', '0626-01-10', '0626-04-19', '0627-02-04', '0635-10-18', '0638-02-27', '0652-11-30', '0659-01-04', '0667-10-04', '0670-05-01', '0676-05-10', '0677-05-14', '0682-07-20', '0695-12-31', '0726-01-28', '0745-11-08', '0756-12-09', '0766-01-01', '0767-09-15', '0774-07-27', '0787-08-10', '0801-06-17', '0801-09-08', '0810-07-21', '0810-11-17', '0811-04-08', '0828-03-07', '0836-06-21', '0846-04-10', '0871-10-10', '0876-09-10', '0897-01-18', '0903-12-07', '0907-11-26', '0909-01-11', '0920-07-24', '0921-02-21', '0940-06-10', '0975-02-11', '0989-09-05', '0994-11-07', '0996-07-29', '0999-03-05', '1002-05-10', '1002-05-31', '1002-06-21', '1006-10-23', '1007-08-01', '1009-08-14', '1013-07-18', '1013-09-22', '1016-08-21', '1017-04-25', '1018-04-10', '1019-09-30', '1019-11-17', '1028-02-17', '1030-07-26', '1037-01-08', '1040-02-22', '1045-04-16', '1045-08-09', '1045-09-26', '1048-05-18', '1060-02-09', '1070-02-09', '1071-10-22', '1073-06-24', '1074-03-18', '1074-05-23', '1075-02-16', '1075-03-23', '1080-11-26', '1082-11-11', '1088-07-24', '1095-07-04', '1105-03-14', '1107-12-26', '1113-01-11', '1115-04-18', '1116-11-23', '1118-07-02', '1119-12-21', '1126-04-14', '1127-04-16', '1128-09-11', '1129-07-28', '1130-10-18', '1130-12-22', '1132-02-02', '1139-06-03', '1140-05-28', '1141-05-27', '1143-02-01', '1145-09-01', '1147-05-09', '1151-04-03', '1152-05-04', '1152-11-06', '1155-05-17', '1160-06-23', '1162-03-05', '1163-08-08', '1163-08-19', '1164-02-23', '1165-07-28', '1166-07-29', '1169-06-26', '1170-04-25', '1170-08-08', '1172-01-29', '1173-02-21', '1173-05-21', '1173-12-23', '1177-11-30', '1178-10-27', '1179-05-13', '1181-03-22', '1182-09-11', '1184-04-11', '1188-04-04', '1190-10-14', '1190-11-23', '1190-12-30', '1192-09-17', '1194-04-25', '1194-07-16', '1194-11-30', '1195-08-15', '1196-02-21', '1198-07-11', '1199-04-17', '1200-01-26', '1200-03-24', '1200-10-28', '1201-02-18', '1204-12-30', '1205-07-10', '1205-10-29', '1206-04-07', '1207-07-07', '1207-09-30', '1211-01-20', '1211-09-22', '1211-12-03', '1212-05-06', '1213-08-25', '1214-04-25', '1218-02-12', '1218-05-01', '1219-02-18', '1220-03-07', '1220-04-16', '1221-06-04', '1222-02-16', '1222-08-04', '1223-01-25', '1223-03-04', '1224-03-05', '1224-03-20', '1224-05-01', '1224-06-03', '1224-06-14', '1225-01-28', '1226-04-16', '1226-11-02', '1227-06-29', '1227-09-30', '1229-04-13', '1230-04-11', '1230-12-01', '1231-08-19', '1233-08-15', '1234-03-24', '1236-06-06', '1236-11-08', '1237-07-05', '1238-05-03', '1239-12-17', '1242-01-27', '1242-03-17', '1242-07-24', '1243-07-11', '1243-09-02', '1246-03-08', '1246-09-14', '1250-12-25', '1251-03-25', '1251-06-05', '1251-09-02', '1253-03-01', '1253-05-19', '1253-09-11', '1253-10-17', '1254-05-04', '1254-06-24', '1255-10-23', '1256-01-06', '1256-03-21', '1256-07-20', '1256-12-30', '1257-03-24', '1257-06-24', '1258-10-21', '1260-04-28', '1260-11-01', '1261-02-01', '1261-03-01', '1262-10-18', '1263-01-22', '1265-03-13', '1266-04-14', '1267-02-03', '1267-08-10', '1268-01-28', '1268-07-11', '1270-06-30', '1270-10-26', '1271-05-25', '1271-07-26', '1272-01-14', '1272-05-10', '1272-07-15', '1273-02-11', '1273-03-25', '1273-07-22', '1274-02-09', '1274-04-01', '1274-10-04', '1274-10-05', '1275-09-27', '1276-09-14', '1277-01-07', '1277-01-21', '1278-05-09', '1278-08-26', '1278-09-08', '1279-04-05', '1280-01-17', '1281-12-25', '1282-02-02', '1282-05-05', '1285-05-01', '1286-02-02', '1286-06-30', '1287-01-24', '1287-04-01', '1287-04-25', '1287-06-15', '1288-01-20', '1289-05-24', '1290-06-23', '1291-01-01', '1291-03-09', '1291-05-10', '1291-09-23', '1292-01-29', '1292-05-28', '1292-10-03', '1293-03-08', '1293-10-12', '1294-03-18', '1294-07-14', '1295-03-21', '1295-09-16', '1296-06-06', '1299-06-24', '1299-11-01', '1300-02-01', '1300-04-04', '1300-06-01', '1300-09-27', '1300-10-09', '1301-07-23', '1301-08-05', '1301-09-24', '1301-10-07', '1302-11-30', '1302-12-07', '1303-07-12', '1304-01-09', '1304-02-24', '1304-05-02', '1304-07-20', '1305-08-18', '1308-02-08', '1309-06-09', '1310-03-05', '1310-11-29', '1311-04-03', '1311-07-01', '1312-01-08', '1312-02-08', '1312-03-12', '1312-09-13', '1313-06-16', '1313-06-21', '1313-11-16', '1314-05-14', '1315-05-04', '1316-04-11', '1317-03-21', '1318-04-03', '1320-03-02', '1321-02-05', '1321-08-07', '1321-08-29', '1322-01-21', '1324-08-04', '1325-05-12', '1325-11-01', '1326-08-16', '1326-11-30', '1327-03-22', '1327-07-03', '1328-11-11', '1328-11-25', '1329-01-06', '1329-10-14', '1329-11-29', '1330-03-24', '1330-07-04', '1330-10-25', '1331-04-14', '1331-04-30', '1332-04-03', '1332-05-27', '1332-06-08', '1333-03-03', '1334-01-13', '1334-02-13', '1335-11-04', '1336-04-23', '1336-12-21', '1338-03-16', '1338-05-30', '1340-03-05', '1340-04-26', '1340-06-24', '1341-01-04', '1341-02-25', '1341-11-10', '1343-12-19', '1344-02-09', '1344-11-08', '1345-05-31', '1347-02-06', '1347-02-27', '1347-03-25', '1347-03-27', '1347-08-29', '1348-01-22', '1349-09-10', '1350-01-23', '1350-11-26', '1351-11-01', '1352-02-01', '1355-01-22', '1355-02-15', '1357-05-03', '1358-09-25', '1360-06-24', '1361-07-30', '1361-11-02', '1362-01-16', '1362-04-25', '1362-09-11', '1363-03-08', '1363-12-13', '1364-05-20', '1364-11-30', '1365-08-01', '1366-03-22', '1366-08-28', '1366-09-18', '1367-04-18', '1369-07-20', '1370-07-23', '1370-10-13', '1371-02-12', '1371-04-23', '1371-09-21', '1372-02-18', '1373-03-29', '1373-08-02', '1373-09-08', '1374-04-11', '1376-12-10', '1377-03-02', '1377-08-10', '1378-01-23', '1378-12-18', '1378-12-31', '1379-01-17', '1380-02-11', '1380-04-18', '1380-09-08', '1380-11-06', '1381-01-13', '1381-07-01', '1381-10-13', '1382-01-28', '1382-06-21', '1383-11-09', '1384-03-04', '1384-11-30', '1385-06-23', '1385-08-01', '1385-08-15', '1386-03-12', '1386-06-24', '1386-11-25', '1387-10-27', '1388-03-06', '1388-06-13', '1388-08-23', '1389-03-01', '1389-09-23', '1389-09-27', '1389-12-05', '1390-06-23', '1390-08-24', '1391-11-06', '1392-01-10', '1392-08-31', '1392-09-03', '1392-12-13', '1393-02-03', '1393-05-23', '1394-07-12', '1395-03-23', '1395-03-29', '1395-09-07', '1396-07-21', '1396-10-15', '1396-10-16', '1396-12-28', '1397-11-13', '1398-05-13', '1398-09-09', '1399-05-04', '1399-06-28', '1399-08-10', '1399-10-09', '1400-07-26', '1401-03-27', '1401-05-10', '1401-11-26', '1401-12-21', '1402-02-06', '1402-06-17', '1403-01-02', '1403-01-13', '1403-06-11', '1403-12-26', '1404-01-18', '1404-02-14', '1404-03-25', '1404-07-06', '1405-10-18', '1406-02-16', '1406-07-11', '1406-09-26', '1407-03-15', '1407-08-27', '1407-09-21', '1408-01-25', '1408-02-14', '1408-04-23', '1408-05-22', '1409-03-02', '1410-07-10', '1410-08-01', '1411-02-02', '1411-03-27', '1412-04-22', '1412-06-05', '1413-06-24', '1413-09-08', '1414-03-25', '1414-05-03', '1414-07-07', '1414-07-21', '1414-10-14', '1414-11-07', '1414-11-09', '1415-03-14', '1415-04-20', '1415-09-12', '1415-09-16', '1415-10-20', '1415-11-26', '1415-12-01', '1416-03-27', '1416-09-19', '1417-02-23', '1417-05-25', '1417-08-02', '1417-11-08', '1417-11-19', '1417-11-23', '1418-02-02', '1418-03-01', '1418-03-14', '1418-08-15', '1419-02-16', '1419-06-03', '1419-11-01', '1420-01-15', '1420-02-09', '1420-07-19', '1420-10-01', '1420-10-14', '1420-11-24', '1421-04-09', '1421-06-03', '1421-07-25', '1421-10-10', '1422-06-07', '1422-11-27', '1422-11-29', '1423-05-18', '1423-05-30', '1423-06-15', '1423-07-06', '1423-08-24', '1424-01-01', '1425-03-22', '1425-03-31', '1425-04-05', '1425-04-30', '1425-08-14', '1425-09-09', '1425-12-06', '1426-07-13', '1426-08-10', '1427-02-27', '1427-05-29', '1427-06-22', '1427-09-09', '1427-10-26', '1427-11-24', '1427-12-30', '1428-04-07', '1428-11-22', '1428-12-04', '1429-01-17', '1430-06-27', '1430-10-28', '1430-11-11', '1431-03-22', '1432-03-02', '1432-04-12', '1433-09-27', '1433-10-19', '1434-03-12', '1434-03-19', '1434-03-25', '1434-12-28', '1435-04-08', '1435-04-16', '1436-01-20', '1436-01-26', '1436-02-26', '1436-06-06', '1437-10-04', '1438-02-12', '1439-05-09', '1439-08-24', '1440-02-13', '1440-05-04', '1440-10-15', '1441-02-09', '1441-06-25', '1441-06-27', '1442-04-13', '1442-04-15', '1442-04-23', '1442-07-13', '1442-08-03', '1442-09-08', '1443-02-18', '1443-05-29', '1443-05-31', '1443-06-29', '1443-11-03', '1443-11-10', '1443-12-05', '1444-01-28', '1444-02-14', '1444-05-29', '1444-06-14', '1445-04-04', '1445-06-22', '1445-07-25', '1445-10-03', '1445-10-25', '1446-05-03', '1447-02-01', '1447-04-17', '1447-04-22', '1448-02-14', '1448-03-20', '1448-06-02', '1448-07-14', '1448-08-11', '1448-09-07', '1449-01-01', '1449-01-17', '1449-02-07', '1449-09-20', '1449-09-26', '1450-08-17', '1450-08-18', '1450-09-25', '1450-11-12', '1451-03-09', '1451-03-17', '1451-11-29', '1452-04-15', '1452-05-18', '1452-08-12', '1452-09-21', '1453-01-01', '1453-02-06', '1453-03-02', '1453-03-03', '1453-04-18', '1453-10-25', '1453-11-13', '1453-11-25', '1454-07-14', '1454-08-01', '1454-12-24', '1455-01-02', '1455-01-09', '1455-01-29', '1455-03-03', '1455-06-01', '1455-07-09', '1455-09-04', '1455-11-09', '1456-02-01', '1456-06-25', '1456-09-08', '1456-09-16', '1456-10-16', '1457-01-18', '1457-04-15', '1458-04-09', '1458-04-13', '1458-08-18', '1458-10-03', '1458-12-25', '1459-02-01', '1459-03-02', '1459-03-06', '1459-05-15', '1459-07-11', '1459-10-15', '1459-12-07', '1460-06-01', '1460-06-30', '1460-09-29', '1461-05-03', '1461-09-15', '1461-10-01', '1461-12-28', '1461-12-31', '1462-01-02', '1462-02-01', '1462-05-19', '1462-05-31', '1462-07-24', '1462-08-26', '1462-09-16', '1462-09-26', '1462-11-26', '1463-02-24', '1463-03-03', '1463-05-15', '1463-06-14', '1463-08-04', '1463-09-29', '1464-04-23', '1464-06-27', '1464-07-01', '1465-02-06', '1465-09-14', '1465-10-14', '1465-12-11', '1466-08-10', '1466-09-09', '1466-10-28', '1466-11-16', '1466-11-29', '1467-01-01', '1467-01-04', '1467-02-02', '1467-02-22', '1467-05-08', '1467-05-31', '1467-10-21', '1467-11-09', '1467-11-25', '1468-02-29', '1468-04-27', '1468-07-12', '1468-07-24', '1468-08-03', '1468-09-15', '1468-09-27', '1468-12-21', '1469-02-20', '1469-04-15', '1469-05-03', '1469-08-04', '1469-10-19', '1470-01-07', '1470-02-16', '1470-04-07', '1470-05-20', '1470-08-04', '1470-10-02', '1470-11-28', '1470-12-05', '1471-04-06', '1471-05-21', '1471-06-06', '1471-07-22', '1471-07-31', '1472-02-15', '1472-03-28', '1472-05-26', '1472-08-11', '1472-10-19', '1472-10-26', '1472-11-24', '1473-02-19', '1473-03-14', '1473-07-04', '1473-08-14', '1473-08-25', '1474-03-21', '1474-05-19', '1474-09-08', '1474-10-07', '1474-10-13', '1474-11-07', '1475-03-06', '1475-06-29', '1475-08-06', '1475-09-06', '1475-09-08', '1475-09-13', '1475-10-20', '1475-12-11', '1476-01-14', '1476-05-02', '1476-06-28', '1476-10-26', '1476-12-13', '1476-12-25', '1477-01-13', '1477-01-14', '1477-06-22', '1477-09-01', '1478-01-29', '1478-02-03', '1478-02-07', '1478-03-16', '1478-05-26', '1478-12-06', '1479-03-12', '1479-03-20', '1479-04-01', '1479-04-27', '1479-05-05', '1479-05-12', '1479-06-15', '1479-10-28', '1479-12-12', '1480-02-04', '1480-02-12', '1480-03-03', '1480-06-01', '1480-07-05', '1480-10-01', '1481-01-15', '1481-02-24', '1481-03-02', '1481-03-07', '1481-05-03', '1481-08-27', '1481-08-28', '1481-12-18', '1481-12-27', '1482-03-07', '1482-07-07', '1482-07-08', '1482-10-07', '1482-10-18', '1483-03-06', '1483-04-06', '1483-04-19', '1483-07-27', '1483-09-03', '1484-03-11', '1484-03-17', '1484-06-25', '1484-07-13', '1484-11-11', '1484-11-29', '1484-12-13', '1485-04-26', '1485-09-27', '1486-02-10', '1486-02-18', '1486-07-02', '1486-07-16', '1486-07-28', '1486-08-10', '1486-09-14', '1486-11-13', '1486-12-09', '1487-02-08', '1487-02-15', '1487-04-10', '1487-09-10', '1487-10-05', '1487-11-14', '1488-01-20', '1488-03-19', '1488-04-21', '1488-05-07', '1488-08-24', '1488-10-17', '1489-01-23', '1489-03-10', '1489-07-02', '1489-08-10', '1489-11-10', '1490-02-17', '1490-04-04', '1490-06-24', '1490-06-28', '1490-07-25', '1490-11-10', '1490-12-25', '1490-12-30', '1491-01-15', '1491-01-30', '1491-03-25', '1491-08-03', '1491-08-25', '1491-10-23', '1491-12-13', '1491-12-31', '1492-01-17', '1492-01-22', '1492-03-09', '1492-03-21', '1492-04-06', '1492-04-20', '1492-05-08', '1492-08-08', '1492-09-05', '1492-09-12', '1493-01-02', '1493-01-10', '1493-01-26', '1493-02-09', '1493-03-06', '1493-03-15', '1493-06-10', '1493-10-26', '1493-11-17', '1493-11-19', '1493-11-25', '1494-02-11', '1494-03-24', '1494-03-25', '1494-05-24', '1494-06-11', '1494-09-08', '1494-09-11', '1494-11-12', '1494-12-03', '1494-12-20', '1495-02-04', '1495-03-08', '1495-03-26', '1495-07-05', '1495-08-24', '1495-09-24', '1495-11-21', '1496-01-06', '1496-03-12', '1496-09-27', '1496-10-20', '1496-10-21', '1497-04-02', '1497-04-16', '1497-04-17', '1497-05-03', '1497-06-27', '1497-07-15', '1497-10-28', '1497-10-29', '1498-02-04', '1498-02-15', '1498-02-21', '1498-04-06', '1498-04-09', '1498-06-01', '1498-06-30', '1498-07-25', '1498-12-01', '1498-12-19', '1499-01-06', '1499-01-29', '1499-03-07', '1499-03-31', '1499-07-17', '1499-08-14', '1499-08-24', '1499-10-14', '1499-10-31', '1499-11-01', '1499-12-08', '1500-01-09', '1500-01-16', '1500-02-22', '1500-02-27', '1500-03-12', '1500-04-23', '1500-05-17', '1500-06-11', '1500-06-13', '1500-07-26', '1500-09-05', '1500-09-07', '1500-10-17', '1500-11-03', '1501-01-17', '1501-01-18', '1501-03-21', '1501-05-06', '1501-08-17', '1501-09-18', '1501-09-24', '1501-11-14', '1502-01-07', '1502-01-20', '1502-02-02', '1502-03-18', '1502-06-26', '1502-09-14', '1502-10-15', '1502-12-06', '1502-12-13', '1503-01-11', '1503-01-18', '1503-02-24', '1503-03-04', '1503-05-01', '1503-06-28', '1503-09-08', '1503-11-17', '1503-12-21', '1504-01-17', '1504-02-03', '1504-03-31', '1504-05-05', '1504-05-29', '1504-07-18', '1504-08-06', '1504-09-04', '1504-09-20', '1504-10-29', '1504-11-11', '1505-01-12', '1505-02-04', '1505-02-05', '1505-09-23', '1505-12-21', '1506-02-15', '1506-04-07', '1506-04-13', '1506-10-06', '1506-12-04', '1506-12-08', '1507-01-01', '1507-01-25', '1507-02-11', '1507-03-27', '1507-03-29', '1507-08-02', '1507-08-11', '1507-09-27', '1507-10-01', '1507-10-29', '1507-11-16', '1507-12-18', '1508-03-16', '1508-06-08', '1508-06-12', '1508-06-29', '1508-09-25', '1508-11-30', '1509-01-02', '1509-03-27', '1509-04-25', '1509-07-25', '1509-08-25', '1509-11-04', '1509-12-03', '1510-06-02', '1510-06-09', '1510-06-27', '1510-08-11', '1510-08-24', '1510-10-06', '1510-10-13', '1510-10-28', '1510-11-08', '1511-01-19', '1511-04-02', '1511-04-05', '1511-06-06', '1511-07-30', '1511-08-24', '1511-09-28', '1511-10-22', '1511-11-08', '1512-01-01', '1512-01-15', '1512-02-03', '1512-03-05', '1512-04-23', '1512-04-30', '1512-07-25', '1512-11-03', '1512-11-04', '1512-11-11', '1512-12-21', '1513-01-19', '1513-07-09', '1513-08-14', '1514-01-23', '1514-02-10', '1514-02-16', '1514-02-25', '1514-03-08', '1514-03-23', '1514-05-03', '1514-05-28', '1514-07-19', '1514-08-15', '1514-09-20', '1514-11-29', '1514-12-31', '1515-02-04', '1515-02-14', '1515-02-18', '1515-03-28', '1515-05-12', '1515-05-18', '1515-06-15', '1515-07-10', '1515-07-22', '1515-09-14', '1515-10-08', '1516-03-26', '1516-06-16', '1516-08-13', '1516-09-02', '1516-10-04', '1516-10-27', '1516-12-21', '1517-01-17', '1517-06-29', '1517-07-10', '1517-07-16', '1517-07-25', '1517-09-06', '1517-10-17', '1517-10-18', '1517-11-19', '1517-12-24', '1518-01-03', '1518-02-02', '1518-07-03', '1518-10-02', '1518-11-26', '1518-12-17', '1518-12-21', '1519-01-01', '1519-01-19', '1519-02-05', '1519-02-15', '1519-02-16', '1519-02-17', '1519-02-19', '1519-03-22', '1519-05-17', '1519-06-15', '1519-07-20', '1519-10-02', '1519-10-28', '1519-11-16', '1519-11-22', '1520-01-01', '1520-01-30', '1520-02-22', '1520-03-03', '1520-03-17', '1520-06-29', '1520-09-13', '1520-10-07', '1520-12-02', '1520-12-27', '1521-04-05', '1521-05-08', '1521-08-04', '1521-10-01', '1521-12-13', '1522-02-02', '1522-03-09', '1522-03-10', '1522-03-22', '1522-04-23', '1522-05-24', '1522-08-28', '1522-09-11', '1522-10-04', '1522-11-04', '1522-11-09', '1522-11-18', '1522-11-21', '1522-12-16', '1523-03-02', '1523-03-14', '1523-04-05', '1523-04-17', '1523-07-04', '1523-07-18', '1523-10-11', '1524-02-10', '1524-02-26', '1524-06-06', '1524-09-07', '1524-09-11', '1524-09-15', '1524-11-12', '1525-01-06', '1525-02-05', '1525-03-07', '1525-03-08', '1525-03-26', '1525-05-26', '1525-06-01', '1525-06-29', '1525-09-01', '1525-12-01', '1526-01-01', '1526-02-02', '1526-02-19', '1526-02-23', '1526-03-04', '1526-04-08', '1526-06-09', '1526-07-10', '1526-08-22', '1526-09-23', '1526-09-26', '1526-10-01', '1526-11-12', '1526-11-30', '1526-12-26', '1526-12-28', '1527-03-10', '1527-03-21', '1527-04-14', '1527-06-11', '1527-06-24', '1527-07-08', '1527-07-13', '1527-09-25', '1527-09-29', '1527-10-02', '1527-10-21', '1527-11-01', '1527-11-03', '1527-12-06', '1527-12-10', '1528-03-10', '1528-05-22', '1528-06-21', '1528-06-29', '1528-07-26', '1528-09-25', '1528-11-06', '1528-11-11', '1528-11-12', '1528-11-14', '1528-11-29', '1529-04-18', '1529-04-25', '1529-05-04', '1529-05-10', '1529-05-30', '1529-07-16', '1529-07-20', '1529-07-24', '1529-09-25', '1529-10-26', '1529-12-11', '1530-01-05', '1530-01-31', '1530-02-17', '1530-02-18', '1530-02-22', '1530-03-13', '1530-05-05', '1530-07-03', '1530-07-17', '1530-08-01', '1530-08-14', '1530-09-30', '1530-10-18', '1530-11-01', '1530-11-06', '1530-12-01', '1531-04-07', '1531-05-01', '1531-06-01', '1531-06-09', '1531-07-22', '1531-09-02', '1531-10-07', '1531-10-12', '1531-10-31', '1531-12-10', '1532-01-21', '1532-02-19', '1532-03-20', '1532-03-25', '1532-06-06', '1532-06-07', '1532-06-13', '1532-06-24', '1532-07-25', '1532-10-04', '1532-11-16', '1532-12-07', '1532-12-20', '1532-12-26', '1532-12-28', '1533-01-28', '1533-02-09', '1533-02-28', '1533-03-09', '1533-04-22', '1533-04-24', '1533-05-02', '1533-05-20', '1533-06-04', '1533-07-10', '1533-08-02', '1533-08-07', '1533-10-12', '1533-10-14', '1533-12-01', '1534-02-15', '1534-03-01', '1534-03-19', '1534-06-03', '1534-06-15', '1534-06-23', '1534-07-18', '1534-08-19', '1534-08-29', '1534-09-24', '1534-10-04', '1534-10-18', '1534-11-26', '1535-01-01', '1535-01-07', '1535-01-19', '1535-02-11', '1535-03-10', '1535-05-28', '1535-05-31', '1535-06-02', '1535-06-11', '1535-06-21', '1535-07-21', '1535-08-21', '1535-09-18', '1535-09-29', '1535-10-16', '1536-01-22', '1536-02-02', '1536-02-06', '1536-02-24', '1536-03-10', '1536-03-31', '1536-04-08', '1536-06-10', '1536-08-14', '1536-10-28', '1536-11-22', '1536-12-18', '1537-01-01', '1537-01-16', '1537-02-02', '1537-02-26', '1537-03-26', '1537-04-08', '1537-07-30', '1537-08-15', '1537-09-30', '1537-10-13', '1537-12-05', '1537-12-24', '1537-12-26', '1538-01-01', '1538-01-06', '1538-01-15', '1538-01-16', '1538-01-25', '1538-03-20', '1538-03-25', '1538-04-26', '1538-07-25', '1538-08-30', '1538-09-29', '1538-10-02', '1538-10-27', '1538-11-16', '1538-12-08', '1538-12-19', '1539-02-23', '1539-04-07', '1539-04-12', '1539-04-20', '1539-05-22', '1539-06-03', '1539-07-20', '1539-09-01', '1539-09-18', '1539-12-31', '1540-01-25', '1540-01-28', '1540-02-23', '1540-02-25', '1540-05-16', '1540-06-11', '1540-06-29', '1540-07-19', '1540-09-09', '1540-09-27', '1540-11-12', '1540-12-31', '1541-02-21', '1541-04-12', '1541-07-04', '1541-09-16', '1541-09-21', '1541-10-01', '1541-12-12', '1542-03-19', '1542-04-10', '1542-04-29', '1542-05-05', '1542-05-10', '1542-05-11', '1542-05-16', '1542-06-24', '1542-08-08', '1542-08-18', '1542-08-24', '1542-08-27', '1542-09-25', '1542-10-01', '1542-10-04', '1542-10-14', '1542-10-31', '1542-11-07', '1542-11-11', '1543-01-07', '1543-01-31', '1543-02-04', '1543-03-07', '1543-03-20', '1543-04-01', '1543-04-11', '1543-08-03', '1543-09-14', '1543-10-21', '1543-11-08', '1543-12-29', '1544-02-03', '1544-03-11', '1544-04-11', '1544-05-24', '1544-08-15', '1544-09-27', '1544-10-28', '1545-01-17', '1545-03-03', '1545-04-15', '1545-04-24', '1545-05-14', '1545-05-22', '1545-09-07', '1545-10-15', '1545-10-19', '1545-10-23', '1545-11-25', '1545-12-15', '1546-02-01', '1546-03-06', '1546-03-25', '1546-04-01', '1546-05-18', '1546-06-09', '1546-06-13', '1546-06-14', '1546-08-10', '1546-08-13', '1546-08-31', '1546-09-06', '1546-10-05', '1546-12-14', '1546-12-22', '1546-12-26', '1547-01-15', '1547-01-25', '1547-02-13', '1547-02-18', '1547-02-24', '1547-03-07', '1547-07-23', '1547-09-29', '1547-10-02', '1547-10-18', '1547-10-21', '1547-12-15', '1547-12-21', '1548-01-05', '1548-02-06', '1548-03-13', '1548-03-17', '1548-03-18', '1548-05-08', '1548-07-15', '1548-08-26', '1548-08-30', '1548-09-02', '1548-10-04', '1548-11-27', '1549-03-10', '1549-03-31', '1549-06-15', '1549-07-02', '1549-07-12', '1549-08-02', '1549-08-10', '1549-12-20', '1550-01-18', '1550-01-30', '1550-02-01', '1550-03-08', '1550-03-20', '1550-04-12', '1550-05-08', '1550-05-25', '1550-09-17', '1550-09-29', '1550-10-01', '1550-10-02', '1550-10-08', '1550-10-25', '1550-10-28', '1550-11-01', '1550-12-22', '1551-01-01', '1551-01-14', '1551-03-28', '1551-05-02', '1551-05-17', '1551-07-18', '1551-07-27', '1551-08-23', '1551-10-04', '1551-10-26', '1552-01-14', '1552-01-22', '1552-02-01', '1552-02-08', '1552-02-20', '1552-02-25', '1552-02-27', '1552-02-28', '1552-03-01', '1552-03-20', '1552-04-20', '1552-04-28', '1552-05-08', '1552-05-12', '1552-06-17', '1552-06-18', '1552-06-29', '1552-07-22', '1552-08-24', '1552-09-16', '1552-09-21', '1552-09-27', '1552-10-06', '1552-10-18', '1552-10-28', '1552-12-09', '1552-12-27', '1552-12-31', '1553-01-22', '1553-02-24', '1553-03-19', '1553-04-23', '1553-06-24', '1553-07-15', '1553-11-02', '1553-11-21', '1553-11-23', '1553-11-28', '1554-01-01', '1554-01-09', '1554-03-01', '1554-03-15', '1554-03-18', '1554-03-22', '1554-03-25', '1554-04-15', '1554-04-24', '1554-05-20', '1554-06-05', '1554-06-21', '1554-10-03', '1554-10-11', '1554-11-01', '1554-11-30', '1554-12-06', '1555-01-01', '1555-03-16', '1555-03-21', '1555-03-31', '1555-04-21', '1555-04-28', '1555-05-09', '1555-05-29', '1555-06-11', '1555-06-16', '1555-06-28', '1555-07-01', '1555-07-19', '1555-08-01', '1555-10-06', '1555-10-27', '1556-01-08', '1556-02-04', '1556-02-16', '1556-03-07', '1556-05-31', '1556-06-06', '1556-06-29', '1556-07-09', '1556-07-22', '1556-08-17', '1556-08-28', '1556-09-21', '1556-10-26', '1556-12-02', '1556-12-05', '1556-12-17', '1556-12-27', '1557-02-15', '1557-03-21', '1557-04-04', '1557-04-11', '1557-06-28', '1557-08-19', '1557-08-26', '1557-09-11', '1557-09-29', '1558-01-16', '1558-01-29', '1558-03-23', '1558-06-15', '1558-06-24', '1558-08-08', '1558-08-24', '1558-08-28', '1558-09-09', '1558-10-08', '1558-10-11', '1558-10-25', '1558-10-30', '1558-12-08', '1559-01-31', '1559-02-18', '1559-02-19', '1559-02-21', '1559-03-09', '1559-03-26', '1559-05-04', '1559-05-12', '1559-07-22', '1559-07-27', '1559-08-05', '1559-08-24', '1559-09-26', '1559-11-11', '1559-11-29', '1560-01-06', '1560-01-17', '1560-03-13', '1560-06-25', '1560-06-28', '1560-08-07', '1560-08-08', '1560-08-10', '1560-08-18', '1560-09-04', '1560-09-13', '1560-10-17', '1560-11-03', '1560-11-13', '1560-11-22', '1560-12-13', '1560-12-14', '1560-12-29', '1561-01-22', '1561-02-01', '1561-02-08', '1561-02-13', '1561-02-15', '1561-03-04', '1561-03-29', '1561-06-07', '1561-06-13', '1561-07-10', '1561-07-11', '1561-07-25', '1561-08-04', '1561-08-14', '1561-08-20', '1561-08-24', '1561-09-01', '1561-09-09', '1561-09-10', '1561-09-21', '1561-10-23', '1561-10-27', '1561-12-01', '1561-12-07', '1562-01-06', '1562-01-13', '1562-01-16', '1562-01-20', '1562-01-28', '1562-02-12', '1562-02-15', '1562-03-11', '1562-03-25', '1562-04-24', '1562-05-02', '1562-05-06', '1562-05-22', '1562-05-26', '1562-05-28', '1562-06-06', '1562-06-26', '1562-07-25', '1562-09-01', '1562-10-04', '1562-10-29', '1562-11-25', '1562-12-02', '1563-03-05', '1563-04-15', '1563-04-20', '1563-05-03', '1563-05-09', '1563-06-01', '1563-07-16', '1563-08-14', '1563-09-15', '1563-09-18', '1563-10-04', '1563-10-13', '1563-10-14', '1563-10-17', '1563-11-19', '1563-11-28', '1563-12-19', '1564-02-15', '1564-02-26', '1564-03-15', '1564-03-20', '1564-04-02', '1564-04-27', '1564-04-30', '1564-05-27', '1564-06-11', '1564-06-28', '1564-07-06', '1564-07-14', '1564-08-02', '1564-08-18', '1564-08-24', '1564-09-13', '1564-09-24', '1564-09-25', '1564-10-07', '1564-10-15', '1564-10-28', '1564-11-15', '1564-12-07', '1564-12-31', '1565-01-17', '1565-01-31', '1565-02-07', '1565-03-24', '1565-04-02', '1565-04-16', '1565-05-04', '1565-06-08', '1565-08-09', '1565-09-17', '1565-09-26', '1565-10-14', '1565-11-10', '1565-11-30', '1566-01-02', '1566-01-13', '1566-02-01', '1566-02-02', '1566-02-15', '1566-04-02', '1566-04-25', '1566-05-01', '1566-05-15', '1566-06-14', '1566-09-01', '1566-09-16', '1566-10-13', '1566-11-09', '1566-11-11', '1566-11-21', '1566-12-01', '1566-12-25', '1566-12-27', '1567-01-27', '1567-02-23', '1567-03-03', '1567-03-17', '1567-04-10', '1567-06-25', '1567-07-01', '1567-07-26', '1567-08-13', '1567-08-15', '1567-08-21', '1567-09-05', '1567-11-14', '1567-11-21', '1567-12-11', '1567-12-18', '1568-01-01', '1568-01-20', '1568-01-30', '1568-02-02', '1568-02-11', '1568-02-14', '1568-03-09', '1568-03-30', '1568-04-05', '1568-04-21', '1568-05-05', '1568-05-11', '1568-06-06', '1568-08-27', '1568-09-05', '1568-10-02', '1568-11-03', '1568-11-18', '1568-11-21', '1568-12-03', '1568-12-25', '1568-12-28', '1569-01-01', '1569-01-22', '1569-02-13', '1569-06-01', '1569-06-26', '1569-06-30', '1569-07-19', '1569-08-15', '1569-08-20', '1569-10-13', '1569-11-05', '1569-11-18', '1569-11-23', '1569-12-22', '1569-12-31', '1570-01-01', '1570-01-07', '1570-01-19', '1570-01-22', '1570-04-13', '1570-05-04', '1570-05-08', '1570-06-11', '1570-06-14', '1570-06-26', '1570-08-10', '1570-08-17', '1570-08-21', '1570-09-08', '1570-10-03', '1570-10-04', '1570-10-07', '1570-10-20', '1571-03-09', '1571-03-31', '1571-04-22', '1571-05-11', '1571-06-17', '1571-06-23', '1571-07-16', '1571-09-28', '1571-09-29', '1571-10-07', '1571-11-18', '1571-12-03', '1571-12-09', '1571-12-27', '1571-12-29', '1572-01-11', '1572-01-22', '1572-01-28', '1572-02-01', '1572-03-04', '1572-03-20', '1572-04-04', '1572-05-25', '1572-06-10', '1572-06-11', '1572-09-27', '1572-09-30', '1572-11-01', '1572-11-02', '1572-11-13', '1572-11-23', '1572-11-25', '1572-11-29', '1572-12-20', '1572-12-22', '1573-01-01', '1573-01-10', '1573-01-18', '1573-01-30', '1573-03-12', '1573-03-15', '1573-07-12', '1573-07-15', '1573-07-29', '1573-09-06', '1573-09-08', '1573-10-06', '1573-10-07', '1573-10-11', '1573-11-29', '1573-11-30', '1573-12-24', '1573-12-27', '1574-01-17', '1574-02-28', '1574-03-01', '1574-03-05', '1574-03-10', '1574-04-15', '1574-06-13', '1574-06-24', '1574-07-01', '1574-07-29', '1574-08-07', '1574-08-17', '1574-08-28', '1574-09-03', '1574-09-06', '1574-09-29', '1574-11-30', '1575-02-03', '1575-02-15', '1575-02-16', '1575-02-27', '1575-04-24', '1575-05-20', '1575-06-18', '1575-06-24', '1575-07-02', '1575-07-11', '1575-08-15', '1575-08-23', '1575-10-11', '1575-10-12', '1575-11-04', '1575-11-09', '1575-12-04', '1576-01-05', '1576-01-09', '1576-01-15', '1576-02-02', '1576-02-10', '1576-02-29', '1576-04-13', '1576-05-17', '1576-09-15', '1576-10-05', '1576-10-12', '1576-10-28', '1576-11-06', '1576-11-17', '1576-11-18', '1576-11-27', '1576-12-02', '1576-12-07', '1576-12-20', '1577-01-12', '1577-02-02', '1577-03-01', '1577-03-09', '1577-03-20', '1577-05-01', '1577-06-12', '1577-06-28', '1577-09-01', '1577-09-08', '1577-10-03', '1577-10-06', '1577-10-11', '1577-11-02', '1577-11-04', '1577-11-10', '1578-01-07', '1578-01-28', '1578-02-08', '1578-03-18', '1578-04-01', '1578-04-12', '1578-05-11', '1578-05-20', '1578-06-13', '1578-07-09', '1578-07-27', '1578-07-31', '1578-08-05', '1578-08-10', '1578-08-15', '1578-08-17', '1578-08-24', '1578-10-04', '1578-11-01', '1578-11-06', '1578-11-21', '1578-12-07', '1579-01-07', '1579-01-26', '1579-01-27', '1579-02-05', '1579-03-24', '1579-04-06', '1579-04-10', '1579-04-25', '1579-04-26', '1579-05-01', '1579-06-18', '1579-07-02', '1579-07-06', '1579-08-21', '1579-09-17', '1579-10-04', '1579-11-12', '1579-11-20', '1579-12-09', '1580-01-12', '1580-01-30', '1580-02-02', '1580-02-28', '1580-03-18', '1580-03-31', '1580-04-08', '1580-04-20', '1580-05-01', '1580-05-05', '1580-05-14', '1580-06-06', '1580-06-13', '1580-06-14', '1580-06-26', '1580-07-04', '1580-07-10', '1580-07-17', '1580-07-18', '1580-08-23', '1580-09-14', '1580-09-17', '1580-09-24', '1580-10-08', '1580-10-30', '1580-12-15', '1581-01-04', '1581-01-27', '1581-01-30', '1581-02-17', '1581-04-03', '1581-04-24', '1581-05-02', '1581-05-10', '1581-06-27', '1581-07-02', '1581-07-21', '1581-09-13', '1581-09-24', '1581-09-27', '1581-10-09', '1581-10-21', '1581-11-26', '1581-12-09', '1581-12-26', '1582-01-07', '1582-01-11', '1582-01-26', '1582-01-28', '1582-01-30', '1582-02-06', '1582-02-17', '1582-03-06', '1582-03-22', '1582-04-11', '1582-05-05', '1582-05-25', '1582-05-30', '1582-06-15', '1582-06-28', '1582-07-09', '1582-08-08', '1582-08-11', '1582-08-17', '1582-08-25', '1582-08-26', '1582-08-27', '1582-09-25', '1582-10-02', '1582-10-19', '1582-10-22', '1582-11-29', '1582-11-30', '1582-12-16', '1583-01-02', '1583-01-31', '1583-02-24', '1583-03-11', '1583-04-08', '1583-04-10', '1583-05-19', '1583-05-24', '1583-06-16', '1583-06-20', '1583-07-20', '1583-08-21', '1583-08-26', '1583-09-29', '1583-10-22', '1583-11-10', '1583-11-25', '1584-01-01', '1584-01-29', '1584-03-15', '1584-03-26', '1584-03-29', '1584-04-05', '1584-04-06', '1584-05-17', '1584-05-20', '1584-06-06', '1584-07-17', '1584-08-11', '1584-08-13', '1584-08-28', '1584-09-08', '1584-09-13', '1584-09-17', '1584-10-10', '1584-11-16', '1584-11-25', '1584-12-13', '1584-12-16', '1584-12-20', '1585-01-06', '1585-01-09', '1585-01-23', '1585-01-24', '1585-01-28', '1585-02-01', '1585-02-05', '1585-02-26', '1585-03-01', '1585-03-02', '1585-03-05', '1585-03-09', '1585-03-16', '1585-03-22', '1585-04-26', '1585-05-01', '1585-05-05', '1585-05-06', '1585-05-15', '1585-06-10', '1585-06-28', '1585-07-07', '1585-07-26', '1585-08-05', '1585-08-12', '1585-09-09', '1585-09-26', '1585-10-10', '1585-10-15', '1585-10-28', '1585-11-15', '1585-11-26', '1585-11-30', '1585-12-03', '1585-12-04', '1585-12-13', '1585-12-31', '1586-01-01', '1586-01-02', '1586-01-20', '1586-01-29', '1586-02-19', '1586-04-04', '1586-04-05', '1586-04-20', '1586-05-09', '1586-07-01', '1586-07-05', '1586-08-08', '1586-08-12', '1586-08-14', '1586-08-17', '1586-10-07', '1586-10-20', '1586-10-21', '1586-10-28', '1586-12-06', '1586-12-14', '1586-12-21', '1587-01-05', '1587-01-06', '1587-01-08', '1587-01-12', '1587-02-01', '1587-02-03', '1587-02-20', '1587-04-02', '1587-04-23', '1587-04-25', '1587-04-28', '1587-04-29', '1587-05-07', '1587-05-26', '1587-06-11', '1587-06-15', '1587-06-21', '1587-06-24', '1587-07-04', '1587-07-21', '1587-08-18', '1587-08-23', '1587-08-28', '1587-09-03', '1587-09-19', '1587-09-26', '1587-10-04', '1587-10-08', '1587-10-11', '1587-10-17', '1587-11-17', '1587-12-13', '1587-12-17', '1587-12-30', '1588-01-06', '1588-02-02', '1588-02-15', '1588-03-22', '1588-04-04', '1588-04-05', '1588-05-01', '1588-05-05', '1588-05-13', '1588-05-16', '1588-05-28', '1588-06-03', '1588-06-11', '1588-06-28', '1588-07-07', '1588-08-01', '1588-08-12', '1588-08-25', '1588-09-08', '1588-11-25', '1588-12-10', '1589-01-08', '1589-03-01', '1589-03-10', '1589-03-29', '1589-04-07', '1589-04-17', '1589-04-20', '1589-06-16', '1589-07-06', '1589-07-09', '1589-07-13', '1589-08-12', '1589-09-01', '1589-10-08', '1589-10-24', '1589-12-21', '1590-01-09', '1590-01-13', '1590-01-20', '1590-01-30', '1590-02-27', '1590-03-06', '1590-03-10', '1590-03-16', '1590-03-19', '1590-05-05', '1590-05-23', '1590-05-31', '1590-06-19', '1590-06-24', '1590-07-13', '1590-08-06', '1590-08-07', '1590-08-15', '1590-08-16', '1590-08-27', '1590-08-30', '1590-09-12', '1590-10-10', '1590-10-11', '1590-11-25', '1590-11-26', '1590</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,37 +758,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Which rockets were launched from Baikonur?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Advanced_Technology_Vehicle', 'http://dbpedia.org/resource/Aerobee', 'http://dbpedia.org/resource/Agnibaan', 'http://dbpedia.org/resource/Al-Abid', 'http://dbpedia.org/resource/Algol_(rocket_stage)', 'http://dbpedia.org/resource/ALV_X-1', 'http://dbpedia.org/resource/Angara_(rocket_family)', 'http://dbpedia.org/resource/Angara_A5', 'http://dbpedia.org/resource/Antares_(rocket)', 'http://dbpedia.org/resource/Aquarius_(rocket)', 'http://dbpedia.org/resource/Arcas_(rocket)', 'http://dbpedia.org/resource/Ares_I', 'http://dbpedia.org/resource/Ares_V', 'http://dbpedia.org/resource/Ariane_1', 'http://dbpedia.org/resource/Ariane_2', 'http://dbpedia.org/resource/Ariane_3', 'http://dbpedia.org/resource/Ariane_4', 'http://dbpedia.org/resource/Ariane_5', 'http://dbpedia.org/resource/Ariane_6', 'http://dbpedia.org/resource/Ariane_Next', 'http://dbpedia.org/resource/Ariel_(rocket)', 'http://dbpedia.org/resource/Aries_(rocket)__Aries__1', 'http://dbpedia.org/resource/ASSET_(spacecraft)', 'http://dbpedia.org/resource/Astrobee', 'http://dbpedia.org/resource/Athena_(rocket_family)__Athena__1', 'http://dbpedia.org/resource/Athena_I', 'http://dbpedia.org/resource/Athena_II', 'http://dbpedia.org/resource/ATK_Launch_Vehicle', 'http://dbpedia.org/resource/Atlas_E/F', 'http://dbpedia.org/resource/Atlas_G', 'http://dbpedia.org/resource/Atlas_H', 'http://dbpedia.org/resource/Atlas_I', 'http://dbpedia.org/resource/Atlas_II', 'http://dbpedia.org/resource/Atlas_III', 'http://dbpedia.org/resource/Atlas_LV-3B', 'http://dbpedia.org/resource/Atlas_SLV-3', 'http://dbpedia.org/resource/Atlas_V', 'http://dbpedia.org/resource/Atlas-Able', 'http://dbpedia.org/resource/Atlas-Agena', 'http://dbpedia.org/resource/Atlas-Centaur', 'http://dbpedia.org/resource/Augmented_Satellite_Launch_Vehicle', 'http://dbpedia.org/resource/Avatar_(spacecraft)', 'http://dbpedia.org/resource/BAC_Mustard', 'http://dbpedia.org/resource/Black_Arrow', 'http://dbpedia.org/resource/Black_Brant_(rocket)', 'http://dbpedia.org/resource/Black_Knight_(rocket)', 'http://dbpedia.org/resource/Blue_Streak_(missile)', 'http://dbpedia.org/resource/Cajun_(rocket)', 'http://dbpedia.org/resource/Capricornio_(rocket)', 'http://dbpedia.org/resource/Castor-Orbus', 'http://dbpedia.org/resource/Cherokee_(rocket)', 'http://dbpedia.org/resource/Comet_HLLV', 'http://dbpedia.org/resource/Commercial_Titan_III', 'http://dbpedia.org/resource/Conestoga_(rocket)', 'http://dbpedia.org/resource/CORONA_(rocket)', 'http://dbpedia.org/resource/Cyclone-4M', 'http://dbpedia.org/resource/DAC_Roc', 'http://dbpedia.org/resource/Deacon-Arrow', 'http://dbpedia.org/resource/Delft_Aerospace_Rocket_Engineering__Stratos_II+__1', 'http://dbpedia.org/resource/Delft_Aerospace_Rocket_Engineering__Stratos_III__1', 'http://dbpedia.org/resource/Delft_Aerospace_Rocket_Engineering__Stratos_IV__1', 'http://dbpedia.org/resource/Delta_(rocket_family)', 'http://dbpedia.org/resource/Delta_0100', 'http://dbpedia.org/resource/Delta_1000', 'http://dbpedia.org/resource/Delta_2000', 'http://dbpedia.org/resource/Delta_3000', 'http://dbpedia.org/resource/Delta_4000', 'http://dbpedia.org/resource/Delta_5000', 'http://dbpedia.org/resource/Delta_A', 'http://dbpedia.org/resource/Delta_B', 'http://dbpedia.org/resource/Delta_C', 'http://dbpedia.org/resource/Delta_D', 'http://dbpedia.org/resource/Delta_E', 'http://dbpedia.org/resource/Delta_E1', 'http://dbpedia.org/resource/Delta_G', 'http://dbpedia.org/resource/Delta_II', 'http://dbpedia.org/resource/Delta_III', 'http://dbpedia.org/resource/Delta_IV_Heavy', 'http://dbpedia.org/resource/Delta_IV', 'http://dbpedia.org/resource/Delta_J', 'http://dbpedia.org/resource/Delta_L', 'http://dbpedia.org/resource/Delta_M', 'http://dbpedia.org/resource/Delta_M6', 'http://dbpedia.org/resource/Delta_N', 'http://dbpedia.org/resource/Delta_N6', 'http://dbpedia.org/resource/Diamant', 'http://dbpedia.org/resource/DIRECT_&amp;_Jupiter_Rocket_Family', 'http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/ELA-1', 'http://dbpedia.org/resource/Emeraude_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Energia', 'http://dbpedia.org/resource/Epsilon_(rocket)', 'http://dbpedia.org/resource/Europa_(rocket)', 'http://dbpedia.org/resource/Falcon_1', 'http://dbpedia.org/resource/Falcon_9_Block_5', 'http://dbpedia.org/resource/Falcon_9_Full_Thrust', 'http://dbpedia.org/resource/Falcon_9_v1.0', 'http://dbpedia.org/resource/Falcon_9_v1.1', 'http://dbpedia.org/resource/Falcon_9', 'http://dbpedia.org/resource/Falcon_Heavy', 'http://dbpedia.org/resource/Falstaff_(rocket)', 'http://dbpedia.org/resource/Feng_Bao_1', 'http://dbpedia.org/resource/Firefly_Alpha', 'http://dbpedia.org/resource/Fregat', 'http://dbpedia.org/resource/Geosynchronous_Satellite_Launch_Vehicle__GSLV__1', 'http://dbpedia.org/resource/Geosynchronous_Satellite_Launch_Vehicle', 'http://dbpedia.org/resource/GX_(rocket)', 'http://dbpedia.org/resource/H-I', 'http://dbpedia.org/resource/H-II', 'http://dbpedia.org/resource/H-IIA', 'http://dbpedia.org/resource/H-IIB', 'http://dbpedia.org/resource/H3_(rocket)', 'http://dbpedia.org/resource/HEAT_1X_Tycho_Brahe', 'http://dbpedia.org/resource/Hermes_program', 'http://dbpedia.org/resource/HGM-25A_Titan_I', 'http://dbpedia.org/resource/Honest_John-Nike-Nike', 'http://dbpedia.org/resource/HOPE-X', 'http://dbpedia.org/resource/Hopi-Dart', 'http://dbpedia.org/resource/ILR-33_AMBER', 'http://dbpedia.org/resource/INTA-100', 'http://dbpedia.org/resource/ION_Satellite_Carrier', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Jaguar_(American_rocket)', 'http://dbpedia.org/resource/Jarvis_(rocket)', 'http://dbpedia.org/resource/Jason_(rocket)', 'http://dbpedia.org/resource/Javelin_(rocket)', 'http://dbpedia.org/resource/Jielong_1', 'http://dbpedia.org/resource/Journeyman_(rocket)', 'http://dbpedia.org/resource/Juno_I', 'http://dbpedia.org/resource/Juno_II', 'http://dbpedia.org/resource/Jupiter-C', 'http://dbpedia.org/resource/Kaituozhe-1', 'http://dbpedia.org/resource/Kankoh-maru', 'http://dbpedia.org/resource/Kistler_K-1', 'http://dbpedia.org/resource/Kiva-Hopi', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Kosmos-2I', 'http://dbpedia.org/resource/Kosmos-2M', 'http://dbpedia.org/resource/Kosmos-3M', 'http://dbpedia.org/resource/Kuaizhou', 'http://dbpedia.org/resource/Lambda_4S', 'http://dbpedia.org/resource/LauncherOne', 'http://dbpedia.org/resource/LGM-25C_Titan_II__Titan_II__1', 'http://dbpedia.org/resource/LGM-25C_Titan_II', 'http://dbpedia.org/resource/Liberty_(rocket)', 'http://dbpedia.org/resource/List_of_Antares_launches', 'http://dbpedia.org/resource/List_of_Astra_rocket_launches', 'http://dbpedia.org/resource/List_of_Atlas_LV3B_launches', 'http://dbpedia.org/resource/List_of_Atlas_LV3C_launches', 'http://dbpedia.org/resource/List_of_Delta_2_launches', 'http://dbpedia.org/resource/List_of_Delta_3_launches', 'http://dbpedia.org/resource/List_of_Delta_DM-19_launches', 'http://dbpedia.org/resource/List_of_Delta_IV_Heavy_launches', 'http://dbpedia.org/resource/List_of_Delta_IV_launches', 'http://dbpedia.org/resource/List_of_Delta_IV_Medium_launches', 'http://dbpedia.org/resource/List_of_Thor-Able_launches', 'http://dbpedia.org/resource/Little_Joe_(rocket)', 'http://dbpedia.org/resource/Little_Joe_II', 'http://dbpedia.org/resource/Lockheed_Martin_X-33', 'http://dbpedia.org/resource/Long_March_1', 'http://dbpedia.org/resource/Long_March_11', 'http://dbpedia.org/resource/Long_March_1D', 'http://dbpedia.org/resource/Long_March_2A', 'http://dbpedia.org/resource/Long_March_2C', 'http://dbpedia.org/resource/Long_March_2D', 'http://dbpedia.org/resource/Long_March_2E', 'http://dbpedia.org/resource/Long_March_2F/G', 'http://dbpedia.org/resource/Long_March_2F', 'http://dbpedia.org/resource/Long_March_3', 'http://dbpedia.org/resource/Long_March_3A', 'http://dbpedia.org/resource/Long_March_3B', 'http://dbpedia.org/resource/Long_March_3C', 'http://dbpedia.org/resource/Long_March_4A', 'http://dbpedia.org/resource/Long_March_4B', 'http://dbpedia.org/resource/Long_March_4C', 'http://dbpedia.org/resource/Long_March_5', 'http://dbpedia.org/resource/Long_March_6', 'http://dbpedia.org/resource/Long_March_6A', 'http://dbpedia.org/resource/Long_March_7', 'http://dbpedia.org/resource/Long_March_8', 'http://dbpedia.org/resource/Long_March_9', 'http://dbpedia.org/resource/Luna_(rocket)', 'http://dbpedia.org/resource/LVM_3', 'http://dbpedia.org/resource/LVM3', 'http://dbpedia.org/resource/M-3SII', 'http://dbpedia.org/resource/M-V', 'http://dbpedia.org/resource/Martin_Marietta_Spacemaster', 'http://dbpedia.org/resource/McDonnell_Douglas_DC-X__DC-X__1', 'http://dbpedia.org/resource/Megaroc', 'http://dbpedia.org/resource/Mercury-Redstone_Launch_Vehicle', 'http://dbpedia.org/resource/Mesquito', 'http://dbpedia.org/resource/Minotaur_(rocket)', 'http://dbpedia.org/resource/Minotaur_I', 'http://dbpedia.org/resource/Minotaur_II', 'http://dbpedia.org/resource/Minotaur_III', 'http://dbpedia.org/resource/Minotaur_IV', 'http://dbpedia.org/resource/Minotaur_V', 'http://dbpedia.org/resource/Minotaur-C', 'http://dbpedia.org/resource/Miura_1', 'http://dbpedia.org/resource/Miura_5', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-L', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/Mu_(rocket_family)', 'http://dbpedia.org/resource/Mu-3C', 'http://dbpedia.org/resource/Mu-3H', 'http://dbpedia.org/resource/Mu-3S', 'http://dbpedia.org/resource/N-I_(rocket)', 'http://dbpedia.org/resource/N-II_(rocket)', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Naga-L', 'http://dbpedia.org/resource/Naro-1', 'http://dbpedia.org/resource/National_Launch_System', 'http://dbpedia.org/resource/New_Glenn__New_Glenn__1', 'http://dbpedia.org/resource/New_Shepard', 'http://dbpedia.org/resource/Nike_Smoke', 'http://dbpedia.org/resource/Nike_Tomahawk', 'http://dbpedia.org/resource/Nike-Apache', 'http://dbpedia.org/resource/Nike-Asp', 'http://dbpedia.org/resource/Nike-Cajun', 'http://dbpedia.org/resource/Nike-Viper', 'http://dbpedia.org/resource/Northrop_Grumman_Pegasus', 'http://dbpedia.org/resource/NOTS-EV-1_Pilot', 'http://dbpedia.org/resource/NOTS-EV-2_Caleb', 'http://dbpedia.org/resource/Nuri_(rocket)', 'http://dbpedia.org/resource/OmegA', 'http://dbpedia.org/resource/Orbex__Prime__1', 'http://dbpedia.org/resource/Orbital_Sciences_X-34', 'http://dbpedia.org/resource/OrbitX__Haribon_SLS-1__1', 'http://dbpedia.org/resource/Orion_(rocket)', 'http://dbpedia.org/resource/OTRAG_(rocket)', 'http://dbpedia.org/resource/Pallas-1', 'http://dbpedia.org/resource/Pegasus_(rocket)', 'http://dbpedia.org/resource/Pencil_Rocket', 'http://dbpedia.org/resource/Perigee_Aerospace__Blue_Whale_1__1', 'http://dbpedia.org/resource/Polar_Satellite_Launch_Vehicle', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Polyot_(rocket)', 'http://dbpedia.org/resource/Private_(rocket)', 'http://dbpedia.org/resource/Project_Santa_Barbara', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton_(rocket)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/PSLV', 'http://dbpedia.org/resource/PWN-9_Kangaroo', 'http://dbpedia.org/resource/Qaem_100', 'http://dbpedia.org/resource/Qased_(rocket)', 'http://dbpedia.org/resource/R-36OM', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rehbar-I', 'http://dbpedia.org/resource/Reusable_Vehicle_Testing', 'http://dbpedia.org/resource/Rexus/Bexus', 'http://dbpedia.org/resource/RLV-TD', 'http://dbpedia.org/resource/RM-86_Exos', 'http://dbpedia.org/resource/RM-89_Blue_Scout_I', 'http://dbpedia.org/resource/RM-90_Blue_Scout_II', 'http://dbpedia.org/resource/Rocket_Lab_Electron', 'http://dbpedia.org/resource/Rocket_Lab_Neutron', 'http://dbpedia.org/resource/Rockot', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/RPS-420', 'http://dbpedia.org/resource/RTV-G-4_Bumper', 'http://dbpedia.org/resource/Rus-M', 'http://dbpedia.org/resource/S-Series_(rocket_family)', 'http://dbpedia.org/resource/Safir_(rocket)__Safir__1', 'http://dbpedia.org/resource/Safir_(rocket)', 'http://dbpedia.org/resource/Saphir_(rocket)__Saphir__1', 'http://dbpedia.org/resource/Saphir_(rocket)', 'http://dbpedia.org/resource/Satellite_Launch_Vehicle', 'http://dbpedia.org/resource/Saturn_A-1', 'http://dbpedia.org/resource/Saturn_A-2', 'http://dbpedia.org/resource/Saturn_C-2', 'http://dbpedia.org/resource/Saturn_C-3', 'http://dbpedia.org/resource/Saturn_C-4', 'http://dbpedia.org/resource/Saturn_C-8', 'http://dbpedia.org/resource/Saturn_I', 'http://dbpedia.org/resource/Saturn_IB-D', 'http://dbpedia.org/resource/Saturn_IB', 'http://dbpedia.org/resource/Saturn_II', 'http://dbpedia.org/resource/Saturn_INT-20', 'http://dbpedia.org/resource/Saturn_INT-21', 'http://dbpedia.org/resource/Saturn_V-B', 'http://dbpedia.org/resource/Saturn_V', 'http://dbpedia.org/resource/Saturn-Shuttle', 'http://dbpedia.org/resource/SaudiSat_5A,5B', 'http://dbpedia.org/resource/Scout_(rocket_family)', 'http://dbpedia.org/resource/Scout_A', 'http://dbpedia.org/resource/Scout_B-1', 'http://dbpedia.org/resource/Scout_B', 'http://dbpedia.org/resource/Scout_D-1', 'http://dbpedia.org/resource/Scout_F-1', 'http://dbpedia.org/resource/Scout_G-1', 'http://dbpedia.org/resource/Scout_X-1', 'http://dbpedia.org/resource/Scout_X-1A', 'http://dbpedia.org/resource/Scout_X-2', 'http://dbpedia.org/resource/Scout_X-2B', 'http://dbpedia.org/resource/Scout_X-2M', 'http://dbpedia.org/resource/Scout_X-3', 'http://dbpedia.org/resource/Scout_X-3M', 'http://dbpedia.org/resource/Scout_X-4', 'http://dbpedia.org/resource/Scout_X', 'http://dbpedia.org/resource/Sea_Dragon_(rocket)', 'http://dbpedia.org/resource/Seagull_(rocket)', 'http://dbpedia.org/resource/Shahab-4', 'http://dbpedia.org/resource/Shavetail', 'http://dbpedia.org/resource/Shavit_2', 'http://dbpedia.org/resource/Shavit', "http://dbpedia.org/resource/Shtil'", 'http://dbpedia.org/resource/Simorgh_(rocket)', 'http://dbpedia.org/resource/Skokie_(rocket)', 'http://dbpedia.org/resource/Skybolt_(sounding_rocket)', 'http://dbpedia.org/resource/Skylark_(rocket)', 'http://dbpedia.org/resource/SM-65_Atlas', 'http://dbpedia.org/resource/SM-65A_Atlas', 'http://dbpedia.org/resource/SM-65B_Atlas', 'http://dbpedia.org/resource/SM-65C_Atlas', 'http://dbpedia.org/resource/SM-65D_Atlas', 'http://dbpedia.org/resource/SM-65E_Atlas', 'http://dbpedia.org/resource/SM-65F_Atlas', 'http://dbpedia.org/resource/Small_Satellite_Launch_Vehicle', 'http://dbpedia.org/resource/SOAR_(spaceplane)', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz_at_the_Guiana_Space_Centre', 'http://dbpedia.org/resource/Soyuz-2_(rocket)', 'http://dbpedia.org/resource/Soyuz-2-1v__Soyuz-2.1v__1', 'http://dbpedia.org/resource/Soyuz-2-1v', 'http://dbpedia.org/resource/Soyuz-2.1a', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-7_(rocket_family)', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-M', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Space_Launch_System', 'http://dbpedia.org/resource/Space_Shuttle', 'http://dbpedia.org/resource/SpaceLoft_XL', 'http://dbpedia.org/resource/SpaceX_Starship_development__Big_Falcon_Rocket__1', 'http://dbpedia.org/resource/SpaceX_Starship_development', 'http://dbpedia.org/resource/SpaceX_Starship', 'http://dbpedia.org/resource/SPARK_(rocket)', 'http://dbpedia.org/resource/Sparoair', 'http://dbpedia.org/resource/Sparta_(rocket)', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Sputnik_(rocket)', 'http://dbpedia.org/resource/SSBS_S1', 'http://dbpedia.org/resource/Start-1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Taurus_(rocket)', 'http://dbpedia.org/resource/TE-416_Tomahawk', 'http://dbpedia.org/resource/Terasca', 'http://dbpedia.org/resource/Terran_1', 'http://dbpedia.org/resource/Terran_R', 'http://dbpedia.org/resource/Terrier_Oriole', 'http://dbpedia.org/resource/Terrier-Asp', 'http://dbpedia.org/resource/Thor_DSV-2', 'http://dbpedia.org/resource/Thor_DSV-2U', 'http://dbpedia.org/resource/Thor_LV-2F_Burner_II', 'http://dbpedia.org/resource/Thor_LV-2F_Burner_IIA', 'http://dbpedia.org/resource/Thor-Able', 'http://dbpedia.org/resource/Thor-Ablestar', 'http://dbpedia.org/resource/Thor-Agena', 'http://dbpedia.org/resource/Thor-Burner', 'http://dbpedia.org/resource/Thor-Delta', 'http://dbpedia.org/resource/Thorad_SLV-2G_Agena-D', 'http://dbpedia.org/resource/Thorad-Agena', 'http://dbpedia.org/resource/Titan_23G', 'http://dbpedia.org/resource/Titan_34D', 'http://dbpedia.org/resource/Titan_II_GLV', 'http://dbpedia.org/resource/Titan_IIIA', 'http://dbpedia.org/resource/Titan_IIIB', 'http://dbpedia.org/resource/Titan_IIIC', 'http://dbpedia.org/resource/Titan_IIID', 'http://dbpedia.org/resource/Titan_IIIE', 'http://dbpedia.org/resource/Titan_IIIM', 'http://dbpedia.org/resource/Titan_IV', 'http://dbpedia.org/resource/Tomahawk_(rocket)', 'http://dbpedia.org/resource/Towed_glider_air-launch_system', 'http://dbpedia.org/resource/Tronador_(rocket)', 'http://dbpedia.org/resource/Troposphere_(rocket_family)__Troposphere_5__1', 'http://dbpedia.org/resource/Troposphere_(rocket_family)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon-3', 'http://dbpedia.org/resource/Tsyklon-4', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Unha', 'http://dbpedia.org/resource/Unified_Launch_Vehicle', 'http://dbpedia.org/resource/Vanguard_(rocket)', 'http://dbpedia.org/resource/Vanguard_rocket', 'http://dbpedia.org/resource/Vector-H', 'http://dbpedia.org/resource/Vector-R', 'http://dbpedia.org/resource/Vega_(rocket)', 'http://dbpedia.org/resource/VentureStar', 'http://dbpedia.org/resource/Vigoride', 'http://dbpedia.org/resource/Viking_(rocket)', 'http://dbpedia.org/resource/Vikram_(rocket)', 'http://dbpedia.org/resource/Vikram_S', 'http://dbpedia.org/resource/VLM_(rocket)', 'http://dbpedia.org/resource/VLS-1', 'http://dbpedia.org/resource/Volga_(rocket_stage)', 'http://dbpedia.org/resource/Volna', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/VS-15', 'http://dbpedia.org/resource/VS-30', 'http://dbpedia.org/resource/VS-40', 'http://dbpedia.org/resource/VS-50', 'http://dbpedia.org/resource/VSB-30', 'http://dbpedia.org/resource/Vulcan_Centaur', 'http://dbpedia.org/resource/XCOR_Lynx', 'http://dbpedia.org/resource/Yenisei_(rocket)', 'http://dbpedia.org/resource/Yuanzheng-1', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SL', 'http://dbpedia.org/resource/Zenit-3SLB', 'http://dbpedia.org/resource/Zenit-3SLBF', 'http://dbpedia.org/resource/Zero_2_Infinity__Bloostar__1', 'http://dbpedia.org/resource/Zuljanah_(rocket)']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,37 +838,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['44.8']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['44.8', '44.8056']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Give me the capitals of all countries that the Himalayas run through.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/New_Delhi']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/New_Delhi']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Which Greek parties are pro-European?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>In which countries can you pay using the West African CFA franc?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>To which artistic movement did the painter of The Three Dancers belong?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['1325']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['1325']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>How many people live in the capital of Australia?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>How much did Pulp Fiction cost?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale?', 'http://dbpedia.org/resource/Afghan_Muscles?', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)?', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case?', 'http://dbpedia.org/resource/Another_Round_(film)?', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1?', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar?', 'http://dbpedia.org/resource/Bag_Københavns_kulisser?', 'http://dbpedia.org/resource/Barefoot_(2017_film)?', "http://dbpedia.org/resource/Benny's_Bathtub?", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light?', 'http://dbpedia.org/resource/Bornholms_stemme?', 'http://dbpedia.org/resource/Breaking_the_Waves?', 'http://dbpedia.org/resource/Busters_verden?', 'http://dbpedia.org/resource/Constance_(film)?', 'http://dbpedia.org/resource/Crying_for_Love?', 'http://dbpedia.org/resource/De_besejrede_Pebersvende?', 'http://dbpedia.org/resource/De_Udstillede?', 'http://dbpedia.org/resource/Den_farlige_alder?', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler?', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært?', 'http://dbpedia.org/resource/Ditte,_Child_of_Man?', 'http://dbpedia.org/resource/Domino_(2019_film)?', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen?', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs?', 'http://dbpedia.org/resource/Echo_(2007_film)?', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee?', 'http://dbpedia.org/resource/Eksperimentet?', 'http://dbpedia.org/resource/En_slem_Dreng?', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)?', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere?', 'http://dbpedia.org/resource/Family_Matters_(film)?', 'http://dbpedia.org/resource/Farlig_Ungdom?', 'http://dbpedia.org/resource/Fidibus?', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)?', 'http://dbpedia.org/resource/Flee_(film)?', 'http://dbpedia.org/resource/Flickering_Lights?', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner?', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum?', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1?', "http://dbpedia.org/resource/Gasolin'_(film)?", 'http://dbpedia.org/resource/Ghost_Train_International?', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen?', "http://dbpedia.org/resource/Goutte_d'Or_(film)?", "http://dbpedia.org/resource/Help!_I'm_a_Fish?", 'http://dbpedia.org/resource/Herberg_for_Hjemløse?', 'http://dbpedia.org/resource/His_New_Grey_Trousers?', 'http://dbpedia.org/resource/Højt_paa_en_kvist?', 'http://dbpedia.org/resource/Holes_in_the_Soup?', 'http://dbpedia.org/resource/Human_Remains_(film)?', 'http://dbpedia.org/resource/Ikíngut?', 'http://dbpedia.org/resource/Jag_är_din_krigare?', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet?', 'http://dbpedia.org/resource/Journey_to_Saturn?', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering?', "http://dbpedia.org/resource/Karla's_World?", 'http://dbpedia.org/resource/Khartoum_Offside?', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story?", 'http://dbpedia.org/resource/Klown_Forever?', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F?', 'http://dbpedia.org/resource/Koko-di_Koko-da?', 'http://dbpedia.org/resource/Kun_en_Tigger?', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure?', 'http://dbpedia.org/resource/Løvejagten?', 'http://dbpedia.org/resource/Manslaughter_(2005_film)?', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North?', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)?', 'http://dbpedia.org/resource/Melody_of_Murder?', 'http://dbpedia.org/resource/Minor_Mishaps?', 'http://dbpedia.org/resource/Monas_verden?', 'http://dbpedia.org/resource/Murderous_Trance?', 'http://dbpedia.org/resource/Murk_(film)?', 'http://dbpedia.org/resource/Nation_Estate?', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)?', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)?', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)?', 'http://dbpedia.org/resource/Nordhavets_mænd?', 'http://dbpedia.org/resource/Nynne?', "http://dbpedia.org/resource/O'_Horten?", 'http://dbpedia.org/resource/Pelle_the_Conqueror?', 'http://dbpedia.org/resource/Pervert_Park?', 'http://dbpedia.org/resource/Princess_(2006_film)?', 'http://dbpedia.org/resource/Pusher_(film_series)?', 'http://dbpedia.org/resource/Regel_nr._1?', 'http://dbpedia.org/resource/Reptilicus?', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)?', 'http://dbpedia.org/resource/Samson_&amp;_Sally?', 'http://dbpedia.org/resource/Sekstet?', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone?', 'http://dbpedia.org/resource/Something_Better_to_Come?', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor?', 'http://dbpedia.org/resource/Sons_of_the_Soil?', 'http://dbpedia.org/resource/Speed_Sisters?', 'http://dbpedia.org/resource/Speed_Walking?', 'http://dbpedia.org/resource/Stealing_Rembrandt?', 'http://dbpedia.org/resource/Stjerneskud?', 'http://dbpedia.org/resource/Stolen_Spring_(film)?', 'http://dbpedia.org/resource/Storm_(2009_film)?', 'http://dbpedia.org/resource/Strømer?', 'http://dbpedia.org/resource/Sun_over_Denmark?', 'http://dbpedia.org/resource/Sunes_familie?', 'http://dbpedia.org/resource/Supervoksen?', 'http://dbpedia.org/resource/Susanne_(1950_film)?', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)?', 'http://dbpedia.org/resource/Terribly_Happy?', "http://dbpedia.org/resource/That's_Me,_Too?", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)?', 'http://dbpedia.org/resource/The_Forbidden_Team?', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)?', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)?', "http://dbpedia.org/resource/The_King's_Choice?", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie?', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)?', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun?', 'http://dbpedia.org/resource/The_Perfect_Human?', 'http://dbpedia.org/resource/The_Red_Meadows?', 'http://dbpedia.org/resource/The_Thralls?', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman?', 'http://dbpedia.org/resource/The_White_Slave_Trade?', 'http://dbpedia.org/resource/Those_Blasted_Kids?', 'http://dbpedia.org/resource/Torremolinos_73?', 'http://dbpedia.org/resource/Valhalla_(1986_film)?', 'http://dbpedia.org/resource/Vildledt_Elskov?', "http://dbpedia.org/resource/We_Meet_at_Tove's?", 'http://dbpedia.org/resource/Webmaster_(film)?', 'http://dbpedia.org/resource/What_No_One_Knows?', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)?']</t>
+          <t>['http://dbpedia.org/resource/10th_Regiment_(Denmark)', 'http://dbpedia.org/resource/1864_(TV_series)', 'http://dbpedia.org/resource/1961_Danish_Grand_Prix', 'http://dbpedia.org/resource/1962_Danish_Grand_Prix', 'http://dbpedia.org/resource/1994_European_Parliament_election_in_Denmark', 'http://dbpedia.org/resource/1999_European_Parliament_election_in_Denmark', 'http://dbpedia.org/resource/2004_European_Parliament_election_in_Denmark', 'http://dbpedia.org/resource/2009_European_Parliament_election_in_Denmark', 'http://dbpedia.org/resource/2018_Vintage_Yachting_Games', 'http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Aabenraa_Municipality', 'http://dbpedia.org/resource/Aabenraa', 'http://dbpedia.org/resource/Aaby,_Aarhus', 'http://dbpedia.org/resource/Aabybro_Municipality', 'http://dbpedia.org/resource/Aabybro', 'http://dbpedia.org/resource/Aabyhøj', 'http://dbpedia.org/resource/Aage_Birch', 'http://dbpedia.org/resource/Aage_Frandsen', 'http://dbpedia.org/resource/Aage_Høy-Petersen', 'http://dbpedia.org/resource/Aage_Ingerslev', 'http://dbpedia.org/resource/Aage_Jørgensen_(gymnast)', 'http://dbpedia.org/resource/Aage_Larsen', 'http://dbpedia.org/resource/Aage_Marius_Hansen', 'http://dbpedia.org/resource/Aage_Walther', 'http://dbpedia.org/resource/Aakirkeby', 'http://dbpedia.org/resource/Aalborg_Business_College', 'http://dbpedia.org/resource/Aalborg_Municipality', 'http://dbpedia.org/resource/Aalborg_University_Hospital', 'http://dbpedia.org/resource/Aalborg', 'http://dbpedia.org/resource/Aalestrup_Municipality', 'http://dbpedia.org/resource/Aalholm', 'http://dbpedia.org/resource/Aarhus_Academy', 'http://dbpedia.org/resource/Aarhus_Art_Academy', 'http://dbpedia.org/resource/Aarhus_Cathedral', 'http://dbpedia.org/resource/Aarhus_City_Tower', 'http://dbpedia.org/resource/Aarhus_County_Hospital', 'http://dbpedia.org/resource/Aarhus_Courthouse', 'http://dbpedia.org/resource/Aarhus_Docklands', 'http://dbpedia.org/resource/Aarhus_Educational_Centre_for_Agriculture', 'http://dbpedia.org/resource/Aarhus_Female_Seminary', 'http://dbpedia.org/resource/Aarhus_Katedralskole', 'http://dbpedia.org/resource/Aarhus_Methodist_Church', 'http://dbpedia.org/resource/Aarhus_Municipal_Hospital', 'http://dbpedia.org/resource/Aarhus_Municipality', 'http://dbpedia.org/resource/Aarhus_School_of_Marine_and_Technical_Engineering', 'http://dbpedia.org/resource/Aarhus_University_Press', 'http://dbpedia.org/resource/Aarhus_University,_School_of_Business_and_Social_Sciences', 'http://dbpedia.org/resource/Aarhus_University', 'http://dbpedia.org/resource/Aarhus', 'http://dbpedia.org/resource/Aars_Church', 'http://dbpedia.org/resource/Aars_Municipality', 'http://dbpedia.org/resource/Aarsballe', 'http://dbpedia.org/resource/Aarsdale', 'http://dbpedia.org/resource/Aarup', 'http://dbpedia.org/resource/Aastrup_(manor_house)', 'http://dbpedia.org/resource/Aastrup_Church', 'http://dbpedia.org/resource/Aastrup,_Falster', 'http://dbpedia.org/resource/Abbey_Gate_(Sorø)', 'http://dbpedia.org/resource/Abbey_of_Our_Lady,_Aalborg', 'http://dbpedia.org/resource/Åbenrå_25', 'http://dbpedia.org/resource/Åbenrå_26', 'http://dbpedia.org/resource/Åby_Church', 'http://dbpedia.org/resource/Åbyhøj_Church', 'http://dbpedia.org/resource/Åbyskov', 'http://dbpedia.org/resource/Academy_of_Music_and_Dramatic_Arts_(Esbjerg)', 'http://dbpedia.org/resource/Active_Pensionists', 'http://dbpedia.org/resource/Admiral_Gjeddes_Gård', 'http://dbpedia.org/resource/Admiralgade_19', 'http://dbpedia.org/resource/Admiralgade_23', 'http://dbpedia.org/resource/Admiralgade_25', 'http://dbpedia.org/resource/Æbelø', 'http://dbpedia.org/resource/Æbleskiver', 'http://dbpedia.org/resource/Ærø_Municipality', 'http://dbpedia.org/resource/Ærøskøbing_Municipality', 'http://dbpedia.org/resource/Ærøskøbing', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Agedrup', 'http://dbpedia.org/resource/Agerbæk', 'http://dbpedia.org/resource/Agerskov_(town)', 'http://dbpedia.org/resource/Agersø', 'http://dbpedia.org/resource/Aggersund', 'http://dbpedia.org/resource/Aggersvold', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Air_Force_Home_Guard', 'http://dbpedia.org/resource/Aksel_Bonde', 'http://dbpedia.org/resource/Aksel_Sørensen', 'http://dbpedia.org/resource/Aktuel_Naturvidenskab', 'http://dbpedia.org/resource/Akuliaruseq,_Kujalleq', 'http://dbpedia.org/resource/Ålbæk', 'http://dbpedia.org/resource/Alexander_Nevsky_Church,_Copenhagen', 'http://dbpedia.org/resource/Alfred_Christensen_(chess_player)', 'http://dbpedia.org/resource/Alfred_Frøkjær_Jørgensen', 'http://dbpedia.org/resource/Alfred_Ollerup_Jørgensen', 'http://dbpedia.org/resource/Algestrup_(manor_house)', 'http://dbpedia.org/resource/Algestrup', 'http://dbpedia.org/resource/Alice_Award', 'http://dbpedia.org/resource/Alken,_Denmark', "http://dbpedia.org/resource/All_Saints'_Church,_Copenhagen", 'http://dbpedia.org/resource/Allan_Stig_Rasmussen', 'http://dbpedia.org/resource/Allerød_Municipality', 'http://dbpedia.org/resource/Allesø', 'http://dbpedia.org/resource/Allinge-Sandvig', 'http://dbpedia.org/resource/Åløkke', 'http://dbpedia.org/resource/Alrø', 'http://dbpedia.org/resource/Alslev', 'http://dbpedia.org/resource/Alslevgaard', 'http://dbpedia.org/resource/Alssund', 'http://dbpedia.org/resource/Alt_for_Damerne', 'http://dbpedia.org/resource/Amager_Bakke', 'http://dbpedia.org/resource/Amager_Hospital', 'http://dbpedia.org/resource/Amager_Vest', 'http://dbpedia.org/resource/Amager', 'http://dbpedia.org/resource/Amagertorv_1', 'http://dbpedia.org/resource/Amaliegade_14', 'http://dbpedia.org/resource/Amaliegade_15–17', 'http://dbpedia.org/resource/Amaliegade_37', 'http://dbpedia.org/resource/Amaliegade_43', 'http://dbpedia.org/resource/Amaliegade_47', 'http://dbpedia.org/resource/Amaliegade_49', 'http://dbpedia.org/resource/Amjad_Khan_(cricketer,_born_1980)', 'http://dbpedia.org/resource/Ancient_Diocese_of_Aarhus', 'http://dbpedia.org/resource/Ancient_Diocese_of_Børglum', 'http://dbpedia.org/resource/Ancient_Diocese_of_Odense', 'http://dbpedia.org/resource/Ancient_Diocese_of_Ribe', 'http://dbpedia.org/resource/Ancient_Diocese_of_Roskilde', 'http://dbpedia.org/resource/Ancient_Diocese_of_the_Faroe_Islands', 'http://dbpedia.org/resource/Ancient_Diocese_of_Viborg', 'http://dbpedia.org/resource/Anders_Andersen_(wrestler)', 'http://dbpedia.org/resource/Anders_Bülow', 'http://dbpedia.org/resource/Anders_Peter_Nielsen', 'http://dbpedia.org/resource/Anders_Petersen_(boxer)', 'http://dbpedia.org/resource/Anders_Petersen_(sport_shooter)', 'http://dbpedia.org/resource/Anders_Rasmussen_(cricketer)', 'http://dbpedia.org/resource/Anderup', 'http://dbpedia.org/resource/Andreas_du_Plessis_de_Richelieu__MilitaryService__1', 'http://dbpedia.org/resource/Andreas_Lambert_(cricketer)', 'http://dbpedia.org/resource/Ane_Cathrine_Andersdatter', 'http://dbpedia.org/resource/Anette_Hoffmann', 'http://dbpedia.org/resource/Anholt_Offshore_Wind_Farm', 'http://dbpedia.org/resource/Anisette_Torp-Lind', 'http://dbpedia.org/resource/Anita_Madsen', 'http://dbpedia.org/resource/Anja_Byrial_Hansen', 'http://dbpedia.org/resource/Anja_Nielsen', 'http://dbpedia.org/resource/Anker_Jørgensen__MilitaryService__1', 'http://dbpedia.org/resource/Ann-Louise_Peters', 'http://dbpedia.org/resource/Anna_Church,_Copenhagen', 'http://dbpedia.org/resource/Anna,_I,_Anna', 'http://dbpedia.org/resource/Annaborg', 'http://dbpedia.org/resource/Anne_Grethe_Jensen', 'http://dbpedia.org/resource/Annette_Hakonsen', 'http://dbpedia.org/resource/Annisse_Nord', 'http://dbpedia.org/resource/Annisse', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Ans,_Denmark', 'http://dbpedia.org/resource/Ansager', 'http://dbpedia.org/resource/Anthon_Olsen', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Anton_Frederik_Tscherning__MilitaryService__1', 'http://dbpedia.org/resource/Antoni_Fałkowski__Tenure__1', 'http://dbpedia.org/resource/Antonigade_3', 'http://dbpedia.org/resource/Arentsminde', 'http://dbpedia.org/resource/Århus_Statsgymnasium', 'http://dbpedia.org/resource/Army_Combat_and_Fire_Support_Centre', 'http://dbpedia.org/resource/Army_Materiel_Command_(Denmark)', 'http://dbpedia.org/resource/Army_Operational_Command_(Denmark)', 'http://dbpedia.org/resource/Army_Staff_(Denmark)', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Arnager', 'http://dbpedia.org/resource/Arne_Desler', 'http://dbpedia.org/resource/Arne_Høyer', 'http://dbpedia.org/resource/Arne_Jørgensen', 'http://dbpedia.org/resource/Arne_Nielsson', 'http://dbpedia.org/resource/Arninge_Church', 'http://dbpedia.org/resource/Årre', 'http://dbpedia.org/resource/Arresø', 'http://dbpedia.org/resource/Arresødal', 'http://dbpedia.org/resource/Årslev', 'http://dbpedia.org/resource/Arvor_Hansen', 'http://dbpedia.org/resource/Asnæs_Power_Station', 'http://dbpedia.org/resource/Assens_Municipality', 'http://dbpedia.org/resource/Assens,_Denmark', 'http://dbpedia.org/resource/Assentoft', 'http://dbpedia.org/resource/Assessor_Bachmann_House', 'http://dbpedia.org/resource/Astrup,_Hjørring', 'http://dbpedia.org/resource/Astrup,_Mariagerfjord', 'http://dbpedia.org/resource/Astrup,_Ringkøbing-Skjern', 'http://dbpedia.org/resource/Åsum,_Denmark', 'http://dbpedia.org/resource/Atlantic_League_(football)', 'http://dbpedia.org/resource/August_Holmgren_(tennis)', 'http://dbpedia.org/resource/Augustenborg_Palace', 'http://dbpedia.org/resource/Augustenborg,_Denmark', 'http://dbpedia.org/resource/Aulum', 'http://dbpedia.org/resource/Auning', 'http://dbpedia.org/resource/Aunslev', 'http://dbpedia.org/resource/Avedøre_Holme_Offshore_Wind_Farm', 'http://dbpedia.org/resource/Avedøre_Power_Station', 'http://dbpedia.org/resource/Avnede_Church', 'http://dbpedia.org/resource/Avnøgård', 'http://dbpedia.org/resource/Axel_Andersen', 'http://dbpedia.org/resource/Axel_Cruusberg', 'http://dbpedia.org/resource/Axel_Petersen_(footballer)', 'http://dbpedia.org/resource/Axel_Schandorff', 'http://dbpedia.org/resource/Axel_Thufason', 'http://dbpedia.org/resource/Baboon_(short_story_collection)', 'http://dbpedia.org/resource/Baby_(Thorup_novel)', 'http://dbpedia.org/resource/Bad_Afro', 'http://dbpedia.org/resource/Badstuestræde_18', 'http://dbpedia.org/resource/Bække', 'http://dbpedia.org/resource/Bækkeskov', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Bagenkop', 'http://dbpedia.org/resource/Bågø', 'http://dbpedia.org/resource/Bagsværd_Church', 'http://dbpedia.org/resource/Balka', 'http://dbpedia.org/resource/Ballerup_Municipality', 'http://dbpedia.org/resource/Ballerup', 'http://dbpedia.org/resource/Baltic_Sea', 'http://dbpedia.org/resource/Bandholm', 'http://dbpedia.org/resource/Bang._En_roman_om_Herman_Bang', 'http://dbpedia.org/resource/Barbara_Tuge-Erecińska__Tenure__2', 'http://dbpedia.org/resource/Barchmann_Mansion', 'http://dbpedia.org/resource/Barefoot_(2017_film)', 'http://dbpedia.org/resource/Barsø', 'http://dbpedia.org/resource/Basit_Raja', 'http://dbpedia.org/resource/Basnæs', 'http://dbpedia.org/resource/Behagen_House', 'http://dbpedia.org/resource/Beldringe', 'http://dbpedia.org/resource/Bellavista_housing_estate', 'http://dbpedia.org/resource/Bellevue_Teatret', 'http://dbpedia.org/resource/Bellinge,_Denmark', 'http://dbpedia.org/resource/Below_the_Surface_(TV_series)', 'http://dbpedia.org/resource/Belvedere,_Gentofte_Municipality', 'http://dbpedia.org/resource/Benjamin_Hannestad', 'http://dbpedia.org/resource/Benny_Nielsen_(swimmer)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bent_Kølvig', 'http://dbpedia.org/resource/Bent_Peder_Rasch', 'http://dbpedia.org/resource/Benzonsdal', 'http://dbpedia.org/resource/Bernhard_Jensen', 'http://dbpedia.org/resource/Bernstorff_Palace', 'http://dbpedia.org/resource/Berritzgaard', 'http://dbpedia.org/resource/Bethlehem_Church,_Copenhagen', 'http://dbpedia.org/resource/Betty_Nansen_Teatret', 'http://dbpedia.org/resource/Biersted', 'http://dbpedia.org/resource/Bill_Blair_Jr.__Tenure__2', 'http://dbpedia.org/resource/Billed_Bladet', 'http://dbpedia.org/resource/Billund_Municipality', 'http://dbpedia.org/resource/Billund,_Denmark', 'http://dbpedia.org/resource/Bindslev,_Denmark', 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bionyt', 'http://dbpedia.org/resource/Birgitte_Hanel', 'http://dbpedia.org/resource/Birkelse', 'http://dbpedia.org/resource/Birkende', 'http://dbpedia.org/resource/Birkendegård', 'http://dbpedia.org/resource/Birkerød_Church', 'http://dbpedia.org/resource/Birkerød', 'http://dbpedia.org/resource/Birket_Church', 'http://dbpedia.org/resource/Birkholm', 'http://dbpedia.org/resource/Birte_Christoffersen', 'http://dbpedia.org/resource/Bispebjerg', 'http://dbpedia.org/resource/Bispegården,_Copenhagen', 'http://dbpedia.org/resource/Bisserup', 'http://dbpedia.org/resource/Bjæverskov', 'http://dbpedia.org/resource/Bjerreby', 'http://dbpedia.org/resource/Bjerringbro', 'http://dbpedia.org/resource/Bjørn_Bisserup__MilitaryService__1', 'http://dbpedia.org/resource/Bjørn_Hasløv', 'http://dbpedia.org/resource/Blachman', 'http://dbpedia.org/resource/Blistrup', 'http://dbpedia.org/resource/Blokhus', 'http://dbpedia.org/resource/Blommenslyst', 'http://dbpedia.org/resource/Blovstrød', 'http://dbpedia.org/resource/Blue_Warehouse', 'http://dbpedia.org/resource/Bo_Bedre', 'http://dbpedia.org/resource/Bo_Jacobsen', 'http://dbpedia.org/resource/Boderne', 'http://dbpedia.org/resource/Bodil_Award_for_Best_Actor_in_a_Supporting_Role', 'http://dbpedia.org/resource/Bodil_Award_for_Best_Actress_in_a_Supporting_Role', 'http://dbpedia.org/resource/Bodil_Rasmussen', 'http://dbpedia.org/resource/Bødstrup', 'http://dbpedia.org/resource/Boeslunde', 'http://dbpedia.org/resource/Bøfsandwich', 'http://dbpedia.org/resource/Bogense', 'http://dbpedia.org/resource/Bolbro', 'http://dbpedia.org/resource/Bølling_Lake', 'http://dbpedia.org/resource/Bondebyen', 'http://dbpedia.org/resource/Bonderup,_Jammerbugt_Municipality', 'http://dbpedia.org/resource/Bonderup', 'http://dbpedia.org/resource/Bønnerup_Strand', 'http://dbpedia.org/resource/Boomerang_(Scandinavian_TV_channel)', 'http://dbpedia.org/resource/Borchs_Kollegium', 'http://dbpedia.org/resource/Børge_Andersen_(chess_player)', 'http://dbpedia.org/resource/Børge_Raahauge_Nielsen', 'http://dbpedia.org/resource/Boris_Chatalbashev', 'http://dbpedia.org/resource/Børkop', "http://dbpedia.org/resource/Bornholm's_Self-Government_Party", 'http://dbpedia.org/resource/Bornholm', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Borreby_Castle', 'http://dbpedia.org/resource/Borris,_Ringkøbing-Skjern_Municipality', 'http://dbpedia.org/resource/Børsen', 'http://dbpedia.org/resource/Borup,_Køge_Municipality', 'http://dbpedia.org/resource/Bøtø_Nor_Pumping_Station', 'http://dbpedia.org/resource/Bournonville_House', 'http://dbpedia.org/resource/Bovlstrup', 'http://dbpedia.org/resource/Brabrand_Church', 'http://dbpedia.org/resource/Brædstrup', 'http://dbpedia.org/resource/Brændende_kærlighed', 'http://dbpedia.org/resource/Bramming', 'http://dbpedia.org/resource/Bramsløkke', 'http://dbpedia.org/resource/Brande', 'http://dbpedia.org/resource/Brarup_Church', 'http://dbpedia.org/resource/Bråskov', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Brede_House', 'http://dbpedia.org/resource/Brede,_Denmark', 'http://dbpedia.org/resource/Bredebro', 'http://dbpedia.org/resource/Bredeshave', 'http://dbpedia.org/resource/Bredgade_63–65', 'http://dbpedia.org/resource/Bredsten', 'http://dbpedia.org/resource/Bregentved', 'http://dbpedia.org/resource/Bregninge,_Svendborg_Municipality', 'http://dbpedia.org/resource/Bregnør_Fiskerleje', 'http://dbpedia.org/resource/Brejning', 'http://dbpedia.org/resource/Bremen_Teater_(Copenhagen)', 'http://dbpedia.org/resource/Brenderup', 'http://dbpedia.org/resource/Brian_Løkken', 'http://dbpedia.org/resource/Brigadér_Halling_House', 'http://dbpedia.org/resource/Broager_Church', 'http://dbpedia.org/resource/Broager', 'http://dbpedia.org/resource/Broksø', 'http://dbpedia.org/resource/Brolæggerstræde_2', 'http://dbpedia.org/resource/Brolæggerstræde_4', 'http://dbpedia.org/resource/Brolæggerstræde_5', 'http://dbpedia.org/resource/Brolæggerstræde_6', 'http://dbpedia.org/resource/Brøndby_Municipality', 'http://dbpedia.org/resource/Brøndbyøster', 'http://dbpedia.org/resource/Brøndbyvester', 'http://dbpedia.org/resource/Brønderslev_Municipality', 'http://dbpedia.org/resource/Brønderslev', 'http://dbpedia.org/resource/Brøndumgård', 'http://dbpedia.org/resource/Brønnum_House', 'http://dbpedia.org/resource/Brønshøj_Church', "http://dbpedia.org/resource/Brorson's_Church", 'http://dbpedia.org/resource/Brørup', 'http://dbpedia.org/resource/Brorupgaard', 'http://dbpedia.org/resource/Brøste_House', 'http://dbpedia.org/resource/Brovst_Municipality', 'http://dbpedia.org/resource/Brovst', 'http://dbpedia.org/resource/Brumleby', 'http://dbpedia.org/resource/Brundby', 'http://dbpedia.org/resource/Bruunshåb', 'http://dbpedia.org/resource/Budolfi_Church', 'http://dbpedia.org/resource/Bullerup', 'http://dbpedia.org/resource/Buresø_(town)', 'http://dbpedia.org/resource/Business_Academy_Aarhus', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Butter_cookie', 'http://dbpedia.org/resource/Buttermilk_koldskål', 'http://dbpedia.org/resource/Buurmester_House', 'http://dbpedia.org/resource/Byen_og_verden', 'http://dbpedia.org/resource/Bygholm_Manor', 'http://dbpedia.org/resource/Bymidten', 'http://dbpedia.org/resource/C_More_First_HD', 'http://dbpedia.org/resource/C_More_Sport_HD', 'http://dbpedia.org/resource/Camilla_Thomsen', 'http://dbpedia.org/resource/Canal_8_Sport', 'http://dbpedia.org/resource/Cannabis_Party_(Denmark)', 'http://dbpedia.org/resource/Capernaum_Church,_Copenhagen', 'http://dbpedia.org/resource/Capital_Region_of_Denmark__Capital_Region_of_Denmark__1', 'http://dbpedia.org/resource/Carl_Jacobsen_House', 'http://dbpedia.org/resource/Carl_Jensen_(wrestler)', 'http://dbpedia.org/resource/Carl_Larsen', 'http://dbpedia.org/resource/Carl_Manicus-Hansen', 'http://dbpedia.org/resource/Carl_Møller', 'http://dbpedia.org/resource/Carl_Pedersen_(gymnast)', 'http://dbpedia.org/resource/Carl_Pedersen_(rower)', 'http://dbpedia.org/resource/Carl-Ebbe_Andersen', 'http://dbpedia.org/resource/Carl-Edvard_Hedelund', 'http://dbpedia.org/resource/Carlsberg_Museum', 'http://dbpedia.org/resource/Carlsberg,_Hillerød', 'http://dbpedia.org/resource/Carlsminde', 'http://dbpedia.org/resource/Caroline_Wozniacki', 'http://dbpedia.org/resource/Carsten_Pedersen', 'http://dbpedia.org/resource/Cartoon_Network_(Scandinavian_TV_channel)', 'http://dbpedia.org/resource/Casino_Theatre_(Copenhagen)', 'http://dbpedia.org/resource/Catholic_Church_of_Our_Lady_(Aarhus)', 'http://dbpedia.org/resource/Cay_Lembcke__MilitaryService__1', 'http://dbpedia.org/resource/Center_for_Electron_Nanoscopy', 'http://dbpedia.org/resource/CenterParty', 'http://dbpedia.org/resource/Central_Denmark_Region', 'http://dbpedia.org/resource/Centre_for_Advanced_Migration_Studies__Centre_for_Advanced_Migration_Studies__1', 'http://dbpedia.org/resource/Centrum_Lake', 'http://dbpedia.org/resource/Ceres_Panorama', 'http://dbpedia.org/resource/Charles_Winckler', 'http://dbpedia.org/resource/Charlottenborg_Palace__Charlottenborg_Palace__1', 'http://dbpedia.org/resource/Charlottendal', 'http://dbpedia.org/resource/Charlottenlund_Palace', 'http://dbpedia.org/resource/Christ_Church,_Copenhagen', 'http://dbpedia.org/resource/Christ_the_King_(Catholic_parish,_Nuuk)', 'http://dbpedia.org/resource/Christian_Discourses', 'http://dbpedia.org/resource/Christian_Frederiksen', 'http://dbpedia.org/resource/Christian_Grønborg', 'http://dbpedia.org/resource/Christian_Hansen_(gymnast)', 'http://dbpedia.org/resource/Christian_Hansen_(rower)', "http://dbpedia.org/resource/Christian_IV's_Arsenal", 'http://dbpedia.org/resource/Christian_Juhl', 'http://dbpedia.org/resource/Christian_Nielsen_(Danish_sailor)', 'http://dbpedia.org/resource/Christian_Pedersen_(gymnast)', 'http://dbpedia.org/resource/Christian_Sigsgaard', 'http://dbpedia.org/resource/Christian_Svendsen', 'http://dbpedia.org/resource/Christian_Thomas_(Danish_gymnast)', 'http://dbpedia.org/resource/Christian_von_Bülow', "http://dbpedia.org/resource/Christian's_Church,_Copenhagen", "http://dbpedia.org/resource/Christian's_Church", 'http://dbpedia.org/resource/Christianelyst', 'http://dbpedia.org/resource/Christiansborg_Palace_(1st)', 'http://dbpedia.org/resource/Christiansborg_Palace_(2nd)', 'http://dbpedia.org/resource/Christiansborg_Palace', 'http://dbpedia.org/resource/Christiansfeld', 'http://dbpedia.org/resource/Christiansholm,_Gentofte_Municipality', 'http://dbpedia.org/resource/Christianshvile', 'http://dbpedia.org/resource/Christianssæde', 'http://dbpedia.org/resource/Christina_Aistrup_Hansen', 'http://dbpedia.org/resource/Christina_Otzen', 'http://dbpedia.org/resource/Christina_Roslyng', 'http://dbpedia.org/resource/Christinelund', 'http://dbpedia.org/resource/Church_of_Our_Lady_(Aarhus)', 'http://dbpedia.org/resource/Church_of_Our_Lady,_Assens', 'http://dbpedia.org/resource/Church_of_Our_Lady,_Copenhagen', 'http://dbpedia.org/resource/Church_of_Our_Lady,_Kalundborg', 'http://dbpedia.org/resource/Church_of_Our_Saviour,_Copenhagen', 'http://dbpedia.org/resource/Church_of_Our_Saviour,_Esbjerg', 'http://dbpedia.org/resource/Church_of_the_Deaf', 'http://dbpedia.org/resource/Church_of_the_Free_Port', 'http://dbpedia.org/resource/Church_of_the_Holy_Ghost,_Copenhagen', 'http://dbpedia.org/resource/Cinnamon_roll', 'http://dbpedia.org/resource/Circus_Building,_Copenhagen', 'http://dbpedia.org/resource/Clara_Tauson', 'http://dbpedia.org/resource/Classen_Library', 'http://dbpedia.org/resource/Classen_Mansion', 'http://dbpedia.org/resource/Coast_of_Slaves', 'http://dbpedia.org/resource/Collin_House', 'http://dbpedia.org/resource/Communist_League_(Denmark)', 'http://dbpedia.org/resource/Communist_Party_(Denmark)', 'http://dbpedia.org/resource/Communist_Party_in_Denmark', 'http://dbpedia.org/resource/Communist_Party_of_Denmark__Communist_Party_of_Denmark__1', 'http://dbpedia.org/resource/Concluding_Unscientific_Postscript_to_Philosophical_Fragments', 'http://dbpedia.org/resource/Conny_Hamann', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Copenhagen_Castle', 'http://dbpedia.org/resource/Copenhagen_Central_Fire_Station', 'http://dbpedia.org/resource/Copenhagen_Central_Post_Building', 'http://dbpedia.org/resource/Copenhagen_City_Hall_(1479–1728)', 'http://dbpedia.org/resource/Copenhagen_City_Hall_(1728–1795)', 'http://dbpedia.org/resource/Copenhagen_City_Hall', 'http://dbpedia.org/resource/Copenhagen_Court_House', 'http://dbpedia.org/resource/Copenhagen_Hospitality_College', 'http://dbpedia.org/resource/Copenhagen_Institute_of_Interaction_Design', 'http://dbpedia.org/resource/Copenhagen_Municipal_Hospital', 'http://dbpedia.org/resource/Copenhagen_Municipality', 'http://dbpedia.org/resource/Copenhagen_North_Business_College', 'http://dbpedia.org/resource/Copenhagen_Records', 'http://dbpedia.org/resource/Copenhagen_Series', 'http://dbpedia.org/resource/Copenhagen_Stocks_House', 'http://dbpedia.org/resource/Copenhagen_Technical_College', 'http://dbpedia.org/resource/Copenhagen', 'http://dbpedia.org/resource/Corsaren', 'http://dbpedia.org/resource/Corselitze', 'http://dbpedia.org/resource/Cort_Adeler_House', 'http://dbpedia.org/resource/Crash_(1984_TV_series)', "http://dbpedia.org/resource/Crown's_Artillery_Regiment", 'http://dbpedia.org/resource/Crozier_Island', 'http://dbpedia.org/resource/Crunchy_Frog_Records', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/Curt_Hansen_(chess_player)', 'http://dbpedia.org/resource/Cyril_Andresen', 'http://dbpedia.org/resource/Dacapo_Records', 'http://dbpedia.org/resource/Dagmar_Overbye', 'http://dbpedia.org/resource/Dahlerup_Warehouse', 'http://dbpedia.org/resource/Dalby,_Faxe_Municipality', 'http://dbpedia.org/resource/Dallund', 'http://dbpedia.org/resource/Dalmose', 'http://dbpedia.org/resource/Damsholte_Church', 'http://dbpedia.org/resource/Damsholte', 'http://dbpedia.org/resource/Dan_Frost', 'http://dbpedia.org/resource/Dana_(1919)', 'http://dbpedia.org/resource/Dana_(1937)', 'http://dbpedia.org/resource/Dana_(1980)', 'http://dbpedia.org/resource/Danish_1st_Division_(Handball)', 'http://dbpedia.org/resource/Danish_1st_Division', 'http://dbpedia.org/resource/Danish_2nd_Division', 'http://dbpedia.org/resource/Danish_3rd_Division', 'http://dbpedia.org/resource/Danish_Artillery_Regiment', 'http://dbpedia.org/resource/Danish_Brigade_in_Sweden', 'http://dbpedia.org/resource/Danish_Defence_Maintenance_Service', 'http://dbpedia.org/resource/Danish_Division_1', 'http://dbpedia.org/resource/Danish_Division', 'http://dbpedia.org/resource/Danish_Futsal_Championship', 'http://dbpedia.org/resource/Danish_International_Brigade', 'http://dbpedia.org/resource/Danish_International_Logistical_Center', 'http://dbpedia.org/resource/Danish_Journal_of_Geography', 'http://dbpedia.org/resource/Danish_League_Cup', 'http://dbpedia.org/resource/Danish_Life_Regiment', "http://dbpedia.org/resource/Danish_Men's_Basketball_Cup", "http://dbpedia.org/resource/Danish_Men's_Handball_League", 'http://dbpedia.org/resource/Danish_National_Art_Library', "http://dbpedia.org/resource/Danish_People's_Defence", "http://dbpedia.org/resource/Danish_People's_Party__Danish_People's_Party__1", "http://dbpedia.org/resource/Danish_People's_Party_(1941–1943)", 'http://dbpedia.org/resource/Danish_School_of_Media_and_Journalism', 'http://dbpedia.org/resource/Danish_Social_Liberal_Party', 'http://dbpedia.org/resource/Danish_Speedway_League', 'http://dbpedia.org/resource/Danish_Task_Group', 'http://dbpedia.org/resource/Danish_Unity', 'http://dbpedia.org/resource/Danish_Volleyball_League', 'http://dbpedia.org/resource/Danish_Wadden_Sea_Islands', "http://dbpedia.org/resource/Danish_Women's_1st_Division", "http://dbpedia.org/resource/Danish_Women's_2nd_Division", "http://dbpedia.org/resource/Danish_Women's_Basketball_Cup", "http://dbpedia.org/resource/Danish_Women's_Handball_League", "http://dbpedia.org/resource/Danish_Women's_League__Danmarksturneringens_Kvindeliga__1", "http://dbpedia.org/resource/Danish_Women's_Volleyball_Cup", "http://dbpedia.org/resource/Danish_Women's_Volleyball_League", 'http://dbpedia.org/resource/Danish-Baltic_Auxiliary_Corps', 'http://dbpedia.org/resource/Danmark_(1906)', 'http://dbpedia.org/resource/Danmark_(ship)', 'http://dbpedia.org/resource/Danmark_Har_Talent', 'http://dbpedia.org/resource/Danmarks_Designskole', 'http://dbpedia.org/resource/Danmarks_Modigste', 'http://dbpedia.org/resource/Danmarks_Næste_Topmodel_(season_1)', 'http://dbpedia.org/resource/Danmarks_Næste_Topmodel_(season_2)', 'http://dbpedia.org/resource/Danmarks_Næste_Topmodel_(season_3)', 'http://dbpedia.org/resource/Danmarks_Næste_Topmodel_(season_4)', 'http://dbpedia.org/resource/Danmarks_Næste_Topmodel_(season_5)', 'http://dbpedia.org/resource/Danmarks_Næste_Topmodel_(season_6)', 'http://dbpedia.org/resource/Dannemare', 'http://dbpedia.org/resource/Danneskiold-Laurvig_Mansion', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Coninck_House', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Deaconal_University_College,_Aarhus', 'http://dbpedia.org/resource/Defence_Command_(Denmark)', 'http://dbpedia.org/resource/Dehn_Mansion', 'http://dbpedia.org/resource/Democratic_Party_(Denmark)', 'http://dbpedia.org/resource/Den_Borgerlige_Velgørenheds_Stiftelse', 'http://dbpedia.org/resource/Den_Danske_Vitruvius', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Denmark_national_Australian_rules_football_team', 'http://dbpedia.org/resource/Dennis_Zachariasson', 'http://dbpedia.org/resource/Department_of_Business_Development_and_Technology', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Design_School_Kolding', 'http://dbpedia.org/resource/Det_Harboeske_Enkefruekloster', 'http://dbpedia.org/resource/Det_Ny_Teater', 'http://dbpedia.org/resource/Det_nye_Danmark', 'http://dbpedia.org/resource/Det_Røde_Kapel', 'http://dbpedia.org/resource/DGI-Huset', 'http://dbpedia.org/resource/Dianalund', 'http://dbpedia.org/resource/Dijmphna', 'http://dbpedia.org/resource/Diocese_of_Aarhus', 'http://dbpedia.org/resource/Diocese_of_Copenhagen', 'http://dbpedia.org/resource/Diocese_of_Funen', 'http://dbpedia.org/resource/Diocese_of_Helsingør', 'http://dbpedia.org/resource/Diocese_of_Lolland–Falster', 'http://dbpedia.org/resource/Diocese_of_Lund__Lund__1', 'http://dbpedia.org/resource/Diocese_of_Ribe', 'http://dbpedia.org/resource/Diocese_of_Roskilde', 'http://dbpedia.org/resource/Diocese_of_Viborg', 'http://dbpedia.org/resource/Dipylon,_Carlsberg', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Dk4', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Domus_Medica', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Dønnerup', 'http://dbpedia.org/resource/Dorothealyst', 'http://dbpedia.org/resource/Dorte_Jensen', 'http://dbpedia.org/resource/DR_Byen', 'http://dbpedia.org/resource/DR_HD', 'http://dbpedia.org/resource/DR_Ramasjang', 'http://dbpedia.org/resource/DR_Update', 'http://dbpedia.org/resource/DR1', 'http://dbpedia.org/resource/DR2', 'http://dbpedia.org/resource/DR3', 'http://dbpedia.org/resource/Dragør_Church', 'http://dbpedia.org/resource/Dragør_Municipality', 'http://dbpedia.org/resource/Dragsholm_Castle', 'http://dbpedia.org/resource/Drastrup_(Essenbæk_Parish)', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Drømmebroer', 'http://dbpedia.org/resource/Dronningegården', 'http://dbpedia.org/resource/Dronningens_Tværgade_5', 'http://dbpedia.org/resource/Dronninggård', 'http://dbpedia.org/resource/Dronninglund', 'http://dbpedia.org/resource/Dronningmølle', 'http://dbpedia.org/resource/DTU_Campus_Village', 'http://dbpedia.org/resource/Duebrødre_Kloster', 'http://dbpedia.org/resource/Dukkepartiet', 'http://dbpedia.org/resource/Dybensgade_22', 'http://dbpedia.org/resource/Dybsø', 'http://dbpedia.org/resource/Dynes_Pedersen', 'http://dbpedia.org/resource/Dyrkøb_7', 'http://dbpedia.org/resource/Dyrlægens_natmad', 'http://dbpedia.org/resource/E-ferry_Ellen', 'http://dbpedia.org/resource/Eastern_Regional_Command_(Denmark)', 'http://dbpedia.org/resource/Ebbe_Parsner', 'http://dbpedia.org/resource/Ebeltoft', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Edgar_Aabye', 'http://dbpedia.org/resource/Edmund_Hansen_(cyclist)', 'http://dbpedia.org/resource/Egå_Church', 'http://dbpedia.org/resource/Egaa_Gymnasium', 'http://dbpedia.org/resource/Egedal_Municipality', 'http://dbpedia.org/resource/Egelund_House', 'http://dbpedia.org/resource/Egeskov_Castle', 'http://dbpedia.org/resource/Egholm,_Lejre_Municipality', 'http://dbpedia.org/resource/Eigil_Pedersen', 'http://dbpedia.org/resource/Einar_Olsen_(gymnast)', 'http://dbpedia.org/resource/Ejby,_Køge_Municipality', 'http://dbpedia.org/resource/Ejby,_Lejre_Municipality', 'http://dbpedia.org/resource/Ejby,_Middelfart_Municipality', 'http://dbpedia.org/resource/Ejgil_Clemmensen', 'http://dbpedia.org/resource/Ejler_Allert', 'http://dbpedia.org/resource/Ejlstrup', 'http://dbpedia.org/resource/Ejvind_Hansen', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/Elephant_Tower,_Carlsberg', "http://dbpedia.org/resource/Elijah's_Church", 'http://dbpedia.org/resource/Ellevang_Church', 'http://dbpedia.org/resource/Ellinge', 'http://dbpedia.org/resource/Elmelunde_Church', 'http://dbpedia.org/resource/Elsebeth_Brehm', 'http://dbpedia.org/resource/Emil_Jørgensen', 'http://dbpedia.org/resource/Emilie_Francati', 'http://dbpedia.org/resource/EML_Admiral_Pitka', 'http://dbpedia.org/resource/EML_Tasuja', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Engelholm,_Næstved_Municipality', 'http://dbpedia.org/resource/Engelsholm_Castle', 'http://dbpedia.org/resource/English_Terrace_(Toldbodgade)', 'http://dbpedia.org/resource/Enø', 'http://dbpedia.org/resource/Ensted_Power_Station', 'http://dbpedia.org/resource/Eqal</t>
         </is>
       </c>
       <c r="D43" t="b">
